--- a/summaries/value_summary.xlsx
+++ b/summaries/value_summary.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ross-\Documents\GitHub\udacity-capstone\summaries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3AB2EF-2701-4AB2-AB44-83B04E50F6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5880" yWindow="3735" windowWidth="38700" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -139,12 +145,12 @@
     <t>Harmonia</t>
   </si>
   <si>
+    <t>Guns N' Roses</t>
+  </si>
+  <si>
     <t>Daft Punk</t>
   </si>
   <si>
-    <t>Guns N' Roses</t>
-  </si>
-  <si>
     <t>Metallica</t>
   </si>
   <si>
@@ -466,10 +472,10 @@
     <t>Submit Downgrade</t>
   </si>
   <si>
+    <t>Cancel</t>
+  </si>
+  <si>
     <t>Cancellation Confirmation</t>
-  </si>
-  <si>
-    <t>Cancel</t>
   </si>
   <si>
     <t>Register</t>
@@ -703,8 +709,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,9 +750,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -765,9 +769,74 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDC4534E-5EB7-4B71-8457-E9A9945A3C3D}" name="Table1" displayName="Table1" ref="A1:D345" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:D345" xr:uid="{A1A3E87C-0F81-4FBD-9AAD-0BD5AD11F19C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E3AB27B6-E1AC-486D-BE48-E45FCB4F9B6B}" name="field"/>
+    <tableColumn id="2" xr3:uid="{C0F134EC-3C28-4B0F-A802-7012DB5DB256}" name="value"/>
+    <tableColumn id="3" xr3:uid="{2EA7CB19-271F-4E42-843F-B7F1170AEA82}" name="count"/>
+    <tableColumn id="4" xr3:uid="{E9505DE6-359A-48C5-AE7C-AA93AC18E035}" name="percentage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,7 +882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -845,9 +914,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,6 +966,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1054,14 +1159,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="82" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1083,10 +1194,10 @@
         <v>58392</v>
       </c>
       <c r="D2">
-        <v>0.2038115183246073</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.20381151832460731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1097,10 +1208,10 @@
         <v>1841</v>
       </c>
       <c r="D3">
-        <v>0.006425828970331588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>6.4258289703315883E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1111,10 +1222,10 @@
         <v>1813</v>
       </c>
       <c r="D4">
-        <v>0.006328097731239092</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6.3280977312390923E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1125,10 +1236,10 @@
         <v>1236</v>
       </c>
       <c r="D5">
-        <v>0.00431413612565445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>4.3141361256544501E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1139,10 +1250,10 @@
         <v>1135</v>
       </c>
       <c r="D6">
-        <v>0.003961605584642234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>3.9616055846422339E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1153,10 +1264,10 @@
         <v>1133</v>
       </c>
       <c r="D7">
-        <v>0.003954624781849912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3.9546247818499124E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1167,10 +1278,10 @@
         <v>1125</v>
       </c>
       <c r="D8">
-        <v>0.003926701570680628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>3.9267015706806281E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1181,10 +1292,10 @@
         <v>1090</v>
       </c>
       <c r="D9">
-        <v>0.003804537521815009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>3.8045375218150089E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1195,10 +1306,10 @@
         <v>1044</v>
       </c>
       <c r="D10">
-        <v>0.003643979057591623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>3.6439790575916232E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1209,10 +1320,10 @@
         <v>1007</v>
       </c>
       <c r="D11">
-        <v>0.003514834205933683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>3.514834205933683E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1223,10 +1334,10 @@
         <v>953</v>
       </c>
       <c r="D12">
-        <v>0.003326352530541012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>3.326352530541012E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1237,10 +1348,10 @@
         <v>884</v>
       </c>
       <c r="D13">
-        <v>0.003085514834205934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>3.0855148342059341E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1251,10 +1362,10 @@
         <v>876</v>
       </c>
       <c r="D14">
-        <v>0.003057591623036649</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>3.0575916230366489E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1265,10 +1376,10 @@
         <v>854</v>
       </c>
       <c r="D15">
-        <v>0.002980802792321117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>2.980802792321117E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1279,10 +1390,10 @@
         <v>840</v>
       </c>
       <c r="D16">
-        <v>0.002931937172774869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>2.931937172774869E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1293,10 +1404,10 @@
         <v>828</v>
       </c>
       <c r="D17">
-        <v>0.002890052356020942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>2.8900523560209421E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1307,10 +1418,10 @@
         <v>822</v>
       </c>
       <c r="D18">
-        <v>0.002869109947643979</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>2.8691099476439788E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1321,10 +1432,10 @@
         <v>787</v>
       </c>
       <c r="D19">
-        <v>0.00274694589877836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>2.7469458987783601E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1335,10 +1446,10 @@
         <v>781</v>
       </c>
       <c r="D20">
-        <v>0.002726003490401396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>2.726003490401396E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1349,10 +1460,10 @@
         <v>729</v>
       </c>
       <c r="D21">
-        <v>0.002544502617801047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>2.544502617801047E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1363,10 +1474,10 @@
         <v>713</v>
       </c>
       <c r="D22">
-        <v>0.002488656195462478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>2.4886561954624779E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1377,10 +1488,10 @@
         <v>713</v>
       </c>
       <c r="D23">
-        <v>0.002488656195462478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>2.4886561954624779E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1391,10 +1502,10 @@
         <v>697</v>
       </c>
       <c r="D24">
-        <v>0.002432809773123909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>2.4328097731239088E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1405,10 +1516,10 @@
         <v>693</v>
       </c>
       <c r="D25">
-        <v>0.002418848167539267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>2.4188481675392671E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1419,10 +1530,10 @@
         <v>643</v>
       </c>
       <c r="D26">
-        <v>0.002244328097731239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>2.2443280977312392E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1433,10 +1544,10 @@
         <v>618</v>
       </c>
       <c r="D27">
-        <v>0.002157068062827225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>2.157068062827225E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1447,10 +1558,10 @@
         <v>278102</v>
       </c>
       <c r="D28">
-        <v>0.9706876090750436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.97068760907504359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1461,10 +1572,10 @@
         <v>8249</v>
       </c>
       <c r="D29">
-        <v>0.02879232111692845</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>2.8792321116928449E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1475,10 +1586,10 @@
         <v>97</v>
       </c>
       <c r="D30">
-        <v>0.0003385689354275742</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>3.3856893542757419E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1489,10 +1600,10 @@
         <v>52</v>
       </c>
       <c r="D31">
-        <v>0.000181500872600349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>1.8150087260034901E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1503,10 +1614,10 @@
         <v>9632</v>
       </c>
       <c r="D32">
-        <v>0.0336195462478185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>3.3619546247818502E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1514,10 +1625,10 @@
         <v>8346</v>
       </c>
       <c r="D33">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1528,10 +1639,10 @@
         <v>7970</v>
       </c>
       <c r="D34">
-        <v>0.02781849912739965</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>2.781849912739965E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1542,10 +1653,10 @@
         <v>6880</v>
       </c>
       <c r="D35">
-        <v>0.02401396160558464</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>2.4013961605584638E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1556,10 +1667,10 @@
         <v>5732</v>
       </c>
       <c r="D36">
-        <v>0.02000698080279232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>2.0006980802792319E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1570,10 +1681,10 @@
         <v>5478</v>
       </c>
       <c r="D37">
-        <v>0.01912041884816754</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>1.912041884816754E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1584,10 +1695,10 @@
         <v>5209</v>
       </c>
       <c r="D38">
-        <v>0.01818150087260035</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>1.8181500872600349E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1598,10 +1709,10 @@
         <v>4989</v>
       </c>
       <c r="D39">
-        <v>0.01741361256544503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>1.741361256544503E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1612,10 +1723,10 @@
         <v>4825</v>
       </c>
       <c r="D40">
-        <v>0.01684118673647469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>1.6841186736474691E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1626,10 +1737,10 @@
         <v>4654</v>
       </c>
       <c r="D41">
-        <v>0.01624432809773124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>1.6244328097731239E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1640,10 +1751,10 @@
         <v>4621</v>
       </c>
       <c r="D42">
-        <v>0.01612914485165794</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>1.612914485165794E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1654,10 +1765,10 @@
         <v>4428</v>
       </c>
       <c r="D43">
-        <v>0.01545549738219895</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>1.545549738219895E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1668,10 +1779,10 @@
         <v>4268</v>
       </c>
       <c r="D44">
-        <v>0.01489703315881326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>1.489703315881326E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1682,10 +1793,10 @@
         <v>4257</v>
       </c>
       <c r="D45">
-        <v>0.0148586387434555</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>1.4858638743455501E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1696,10 +1807,10 @@
         <v>4246</v>
       </c>
       <c r="D46">
-        <v>0.01482024432809773</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>1.4820244328097729E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1710,10 +1821,10 @@
         <v>4172</v>
       </c>
       <c r="D47">
-        <v>0.01456195462478185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>1.456195462478185E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1724,10 +1835,10 @@
         <v>3769</v>
       </c>
       <c r="D48">
-        <v>0.01315532286212914</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>1.3155322862129139E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1738,10 +1849,10 @@
         <v>3657</v>
       </c>
       <c r="D49">
-        <v>0.01276439790575916</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>1.2764397905759161E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1752,10 +1863,10 @@
         <v>3603</v>
       </c>
       <c r="D50">
-        <v>0.01257591623036649</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>1.2575916230366489E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1766,10 +1877,10 @@
         <v>3486</v>
       </c>
       <c r="D51">
-        <v>0.01216753926701571</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>1.216753926701571E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1780,10 +1891,10 @@
         <v>3437</v>
       </c>
       <c r="D52">
-        <v>0.01199650959860384</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>1.1996509598603841E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1794,10 +1905,10 @@
         <v>3385</v>
       </c>
       <c r="D53">
-        <v>0.01181500872600349</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>1.181500872600349E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1808,10 +1919,10 @@
         <v>3382</v>
       </c>
       <c r="D54">
-        <v>0.01180453752181501</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>1.180453752181501E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1822,10 +1933,10 @@
         <v>3191</v>
       </c>
       <c r="D55">
-        <v>0.01113787085514834</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>1.113787085514834E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1836,10 +1947,10 @@
         <v>3102</v>
       </c>
       <c r="D56">
-        <v>0.01082722513089005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>1.082722513089005E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1850,10 +1961,10 @@
         <v>3014</v>
       </c>
       <c r="D57">
-        <v>0.01052006980802792</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>1.0520069808027921E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1864,10 +1975,10 @@
         <v>154578</v>
       </c>
       <c r="D58">
-        <v>0.5395392670157068</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.53953926701570676</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1878,10 +1989,10 @@
         <v>123576</v>
       </c>
       <c r="D59">
-        <v>0.4313298429319372</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.43132984293193721</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1889,10 +2000,10 @@
         <v>8346</v>
       </c>
       <c r="D60">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1903,10 +2014,10 @@
         <v>3278</v>
       </c>
       <c r="D61">
-        <v>0.01144153577661431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>1.144153577661431E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1917,10 +2028,10 @@
         <v>3125</v>
       </c>
       <c r="D62">
-        <v>0.01090750436300175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>1.090750436300175E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1931,10 +2042,10 @@
         <v>3067</v>
       </c>
       <c r="D63">
-        <v>0.01070506108202443</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>1.0705061082024431E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1945,10 +2056,10 @@
         <v>3013</v>
       </c>
       <c r="D64">
-        <v>0.01051657940663176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>1.0516579406631759E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1959,10 +2070,10 @@
         <v>2977</v>
       </c>
       <c r="D65">
-        <v>0.01039092495636998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>1.0390924956369981E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -1973,10 +2084,10 @@
         <v>2925</v>
       </c>
       <c r="D66">
-        <v>0.01020942408376963</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>1.020942408376963E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1987,10 +2098,10 @@
         <v>2886</v>
       </c>
       <c r="D67">
-        <v>0.01007329842931937</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>1.007329842931937E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2001,10 +2112,10 @@
         <v>2857</v>
       </c>
       <c r="D68">
-        <v>0.009972076788830716</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>9.9720767888307159E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2015,10 +2126,10 @@
         <v>2816</v>
       </c>
       <c r="D69">
-        <v>0.009828970331588133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>9.8289703315881331E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2029,10 +2140,10 @@
         <v>2771</v>
       </c>
       <c r="D70">
-        <v>0.009671902268760907</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>9.6719022687609072E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2043,10 +2154,10 @@
         <v>2717</v>
       </c>
       <c r="D71">
-        <v>0.009483420593368238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>9.4834205933682376E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2057,10 +2168,10 @@
         <v>2672</v>
       </c>
       <c r="D72">
-        <v>0.009326352530541012</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>9.3263525305410117E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2071,10 +2182,10 @@
         <v>2636</v>
       </c>
       <c r="D73">
-        <v>0.009200698080279231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>9.2006980802792314E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2085,10 +2196,10 @@
         <v>2600</v>
       </c>
       <c r="D74">
-        <v>0.009075043630017453</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>9.0750436300174528E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2099,10 +2210,10 @@
         <v>2561</v>
       </c>
       <c r="D75">
-        <v>0.008938917975567191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>8.9389179755671906E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2113,10 +2224,10 @@
         <v>2523</v>
       </c>
       <c r="D76">
-        <v>0.00880628272251309</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>8.8062827225130896E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2127,10 +2238,10 @@
         <v>2497</v>
       </c>
       <c r="D77">
-        <v>0.008715532286212914</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>8.7155322862129143E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2141,10 +2252,10 @@
         <v>2461</v>
       </c>
       <c r="D78">
-        <v>0.008589877835951134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>8.5898778359511339E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2155,10 +2266,10 @@
         <v>2417</v>
       </c>
       <c r="D79">
-        <v>0.008436300174520069</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>8.4363001745200693E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2169,10 +2280,10 @@
         <v>2381</v>
       </c>
       <c r="D80">
-        <v>0.008310645724258289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>8.3106457242582889E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2183,10 +2294,10 @@
         <v>2350</v>
       </c>
       <c r="D81">
-        <v>0.008202443280977313</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>8.2024432809773128E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2197,10 +2308,10 @@
         <v>2321</v>
       </c>
       <c r="D82">
-        <v>0.008101221640488656</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>8.1012216404886556E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2211,10 +2322,10 @@
         <v>2294</v>
       </c>
       <c r="D83">
-        <v>0.008006980802792321</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>8.0069808027923208E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2225,10 +2336,10 @@
         <v>2262</v>
       </c>
       <c r="D84">
-        <v>0.007895287958115184</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>7.8952879581151835E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2239,10 +2350,10 @@
         <v>2233</v>
       </c>
       <c r="D85">
-        <v>0.007794066317626527</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>7.7940663176265272E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2253,10 +2364,10 @@
         <v>14060</v>
       </c>
       <c r="D86">
-        <v>0.04907504363001745</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>4.9075043630017447E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -2267,10 +2378,10 @@
         <v>9284</v>
       </c>
       <c r="D87">
-        <v>0.03240488656195462</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>3.2404886561954623E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -2281,10 +2392,10 @@
         <v>8410</v>
       </c>
       <c r="D88">
-        <v>0.0293542757417103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>2.93542757417103E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2292,10 +2403,10 @@
         <v>8346</v>
       </c>
       <c r="D89">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -2306,10 +2417,10 @@
         <v>7230</v>
       </c>
       <c r="D90">
-        <v>0.02523560209424084</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>2.523560209424084E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -2320,10 +2431,10 @@
         <v>6106</v>
       </c>
       <c r="D91">
-        <v>0.02131239092495637</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>2.1312390924956369E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -2334,10 +2445,10 @@
         <v>6105</v>
       </c>
       <c r="D92">
-        <v>0.02130890052356021</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>2.1308900523560211E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2348,10 +2459,10 @@
         <v>5732</v>
       </c>
       <c r="D93">
-        <v>0.02000698080279232</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>2.0006980802792319E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -2362,10 +2473,10 @@
         <v>5217</v>
       </c>
       <c r="D94">
-        <v>0.01820942408376963</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>1.8209424083769628E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -2376,10 +2487,10 @@
         <v>4831</v>
       </c>
       <c r="D95">
-        <v>0.01686212914485166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>1.6862129144851658E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2390,10 +2501,10 @@
         <v>4825</v>
       </c>
       <c r="D96">
-        <v>0.01684118673647469</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>1.6841186736474691E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -2404,10 +2515,10 @@
         <v>4659</v>
       </c>
       <c r="D97">
-        <v>0.01626178010471204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>1.6261780104712041E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -2418,10 +2529,10 @@
         <v>4461</v>
       </c>
       <c r="D98">
-        <v>0.01557068062827225</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>1.557068062827225E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2432,10 +2543,10 @@
         <v>4428</v>
       </c>
       <c r="D99">
-        <v>0.01545549738219895</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>1.545549738219895E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -2446,10 +2557,10 @@
         <v>4370</v>
       </c>
       <c r="D100">
-        <v>0.01525305410122164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>1.5253054101221641E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -2460,10 +2571,10 @@
         <v>4257</v>
       </c>
       <c r="D101">
-        <v>0.0148586387434555</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>1.4858638743455501E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -2474,10 +2585,10 @@
         <v>4002</v>
       </c>
       <c r="D102">
-        <v>0.01396858638743455</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>1.396858638743455E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -2488,10 +2599,10 @@
         <v>3890</v>
       </c>
       <c r="D103">
-        <v>0.01357766143106457</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>1.3577661431064571E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -2502,10 +2613,10 @@
         <v>3769</v>
       </c>
       <c r="D104">
-        <v>0.01315532286212914</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>1.3155322862129139E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -2516,10 +2627,10 @@
         <v>3761</v>
       </c>
       <c r="D105">
-        <v>0.01312739965095986</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>1.312739965095986E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -2530,10 +2641,10 @@
         <v>3483</v>
       </c>
       <c r="D106">
-        <v>0.01215706806282722</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>1.2157068062827219E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -2544,10 +2655,10 @@
         <v>3437</v>
       </c>
       <c r="D107">
-        <v>0.01199650959860384</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>1.1996509598603841E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -2558,10 +2669,10 @@
         <v>3102</v>
       </c>
       <c r="D108">
-        <v>0.01082722513089005</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>1.082722513089005E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -2572,10 +2683,10 @@
         <v>3051</v>
       </c>
       <c r="D109">
-        <v>0.01064921465968586</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>1.064921465968586E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -2586,10 +2697,10 @@
         <v>3014</v>
       </c>
       <c r="D110">
-        <v>0.01052006980802792</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>1.0520069808027921E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -2600,10 +2711,10 @@
         <v>2809</v>
       </c>
       <c r="D111">
-        <v>0.009804537521815008</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>9.8045375218150082E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -2611,10 +2722,10 @@
         <v>58392</v>
       </c>
       <c r="D112">
-        <v>0.2038115183246073</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>0.20381151832460731</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -2625,66 +2736,66 @@
         <v>1205</v>
       </c>
       <c r="D113">
-        <v>0.004205933682373473</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>4.2059336823734731E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114">
-        <v>348.57751</v>
+        <v>348.57751000000002</v>
       </c>
       <c r="C114">
         <v>1037</v>
       </c>
       <c r="D114">
-        <v>0.003619546247818499</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>3.6195462478184992E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>10</v>
       </c>
       <c r="B115">
-        <v>201.79546</v>
+        <v>201.79545999999999</v>
       </c>
       <c r="C115">
         <v>908</v>
       </c>
       <c r="D115">
-        <v>0.003169284467713787</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>3.169284467713787E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>10</v>
       </c>
       <c r="B116">
-        <v>655.77751</v>
+        <v>655.77751000000001</v>
       </c>
       <c r="C116">
         <v>730</v>
       </c>
       <c r="D116">
-        <v>0.002547993019197208</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>2.5479930191972082E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>10</v>
       </c>
       <c r="B117">
-        <v>277.15873</v>
+        <v>277.15872999999999</v>
       </c>
       <c r="C117">
         <v>645</v>
       </c>
       <c r="D117">
-        <v>0.00225130890052356</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>2.2513089005235598E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -2695,10 +2806,10 @@
         <v>585</v>
       </c>
       <c r="D118">
-        <v>0.002041884816753927</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>2.041884816753927E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -2709,52 +2820,52 @@
         <v>522</v>
       </c>
       <c r="D119">
-        <v>0.001821989528795812</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>1.821989528795812E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>10</v>
       </c>
       <c r="B120">
-        <v>220.89098</v>
+        <v>220.89098000000001</v>
       </c>
       <c r="C120">
         <v>511</v>
       </c>
       <c r="D120">
-        <v>0.001783595113438045</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>1.783595113438045E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
       <c r="B121">
-        <v>236.09424</v>
+        <v>236.09424000000001</v>
       </c>
       <c r="C121">
         <v>450</v>
       </c>
       <c r="D121">
-        <v>0.001570680628272251</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>1.5706806282722509E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>10</v>
       </c>
       <c r="B122">
-        <v>252.21179</v>
+        <v>252.21179000000001</v>
       </c>
       <c r="C122">
         <v>438</v>
       </c>
       <c r="D122">
-        <v>0.001528795811518325</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>1.5287958115183251E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -2765,24 +2876,24 @@
         <v>436</v>
       </c>
       <c r="D123">
-        <v>0.001521815008726004</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>1.521815008726004E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>10</v>
       </c>
       <c r="B124">
-        <v>122.04363</v>
+        <v>122.04362999999999</v>
       </c>
       <c r="C124">
         <v>412</v>
       </c>
       <c r="D124">
-        <v>0.00143804537521815</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>1.4380453752181499E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -2793,24 +2904,24 @@
         <v>408</v>
       </c>
       <c r="D125">
-        <v>0.001424083769633508</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>1.424083769633508E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>10</v>
       </c>
       <c r="B126">
-        <v>181.21098</v>
+        <v>181.21098000000001</v>
       </c>
       <c r="C126">
         <v>384</v>
       </c>
       <c r="D126">
-        <v>0.001340314136125654</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>1.3403141361256539E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -2821,10 +2932,10 @@
         <v>379</v>
       </c>
       <c r="D127">
-        <v>0.001322862129144852</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>1.3228621291448521E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -2835,66 +2946,66 @@
         <v>378</v>
       </c>
       <c r="D128">
-        <v>0.001319371727748691</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>1.3193717277486909E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
       <c r="B129">
-        <v>216.76363</v>
+        <v>216.76363000000001</v>
       </c>
       <c r="C129">
         <v>362</v>
       </c>
       <c r="D129">
-        <v>0.001263525305410122</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>1.263525305410122E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>10</v>
       </c>
       <c r="B130">
-        <v>302.05342</v>
+        <v>302.05342000000002</v>
       </c>
       <c r="C130">
         <v>345</v>
       </c>
       <c r="D130">
-        <v>0.001204188481675393</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>1.2041884816753931E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>10</v>
       </c>
       <c r="B131">
-        <v>233.89995</v>
+        <v>233.89994999999999</v>
       </c>
       <c r="C131">
         <v>314</v>
       </c>
       <c r="D131">
-        <v>0.001095986038394415</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>1.095986038394415E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>10</v>
       </c>
       <c r="B132">
-        <v>229.58975</v>
+        <v>229.58975000000001</v>
       </c>
       <c r="C132">
         <v>308</v>
       </c>
       <c r="D132">
-        <v>0.001075043630017452</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>1.075043630017452E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -2905,66 +3016,66 @@
         <v>306</v>
       </c>
       <c r="D133">
-        <v>0.001068062827225131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>1.0680628272251311E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>10</v>
       </c>
       <c r="B134">
-        <v>205.45261</v>
+        <v>205.45260999999999</v>
       </c>
       <c r="C134">
         <v>302</v>
       </c>
       <c r="D134">
-        <v>0.001054101221640489</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>1.0541012216404889E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>10</v>
       </c>
       <c r="B135">
-        <v>269.63546</v>
+        <v>269.63546000000002</v>
       </c>
       <c r="C135">
         <v>294</v>
       </c>
       <c r="D135">
-        <v>0.001026178010471204</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>1.026178010471204E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>10</v>
       </c>
       <c r="B136">
-        <v>211.12118</v>
+        <v>211.12118000000001</v>
       </c>
       <c r="C136">
         <v>259</v>
       </c>
       <c r="D136">
-        <v>0.0009040139616055846</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>9.0401396160558461E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>10</v>
       </c>
       <c r="B137">
-        <v>307.51302</v>
+        <v>307.51301999999998</v>
       </c>
       <c r="C137">
         <v>258</v>
       </c>
       <c r="D137">
-        <v>0.0009005235602094241</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>9.0052356020942407E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -2975,10 +3086,10 @@
         <v>228162</v>
       </c>
       <c r="D138">
-        <v>0.7963769633507853</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>0.79637696335078534</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -2989,10 +3100,10 @@
         <v>58338</v>
       </c>
       <c r="D139">
-        <v>0.2036230366492147</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>0.20362303664921469</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -3006,7 +3117,7 @@
         <v>0.1051692844677138</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -3017,10 +3128,10 @@
         <v>23684</v>
       </c>
       <c r="D141">
-        <v>0.08266666666666667</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>8.2666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -3031,10 +3142,10 @@
         <v>13873</v>
       </c>
       <c r="D142">
-        <v>0.04842233856893543</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>4.8422338568935429E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -3045,10 +3156,10 @@
         <v>9499</v>
       </c>
       <c r="D143">
-        <v>0.03315532286212915</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>3.3155322862129147E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -3056,10 +3167,10 @@
         <v>8346</v>
       </c>
       <c r="D144">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -3070,10 +3181,10 @@
         <v>7780</v>
       </c>
       <c r="D145">
-        <v>0.02715532286212914</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>2.7155322862129141E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -3084,10 +3195,10 @@
         <v>7605</v>
       </c>
       <c r="D146">
-        <v>0.02654450261780105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>2.6544502617801051E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -3098,10 +3209,10 @@
         <v>6880</v>
       </c>
       <c r="D147">
-        <v>0.02401396160558464</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>2.4013961605584638E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -3112,10 +3223,10 @@
         <v>5890</v>
       </c>
       <c r="D148">
-        <v>0.02055846422338569</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>2.055846422338569E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -3126,10 +3237,10 @@
         <v>5114</v>
       </c>
       <c r="D149">
-        <v>0.0178499127399651</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>1.7849912739965099E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -3140,10 +3251,10 @@
         <v>4858</v>
       </c>
       <c r="D150">
-        <v>0.01695636998254799</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>1.695636998254799E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -3154,10 +3265,10 @@
         <v>4846</v>
       </c>
       <c r="D151">
-        <v>0.01691448516579407</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>1.6914485165794069E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -3168,10 +3279,10 @@
         <v>4825</v>
       </c>
       <c r="D152">
-        <v>0.01684118673647469</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>1.6841186736474691E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -3182,10 +3293,10 @@
         <v>4659</v>
       </c>
       <c r="D153">
-        <v>0.01626178010471204</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>1.6261780104712041E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -3196,10 +3307,10 @@
         <v>4453</v>
       </c>
       <c r="D154">
-        <v>0.01554275741710297</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>1.5542757417102969E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -3210,10 +3321,10 @@
         <v>4428</v>
       </c>
       <c r="D155">
-        <v>0.01545549738219895</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>1.545549738219895E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -3224,10 +3335,10 @@
         <v>4373</v>
       </c>
       <c r="D156">
-        <v>0.01526352530541012</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>1.5263525305410121E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -3238,10 +3349,10 @@
         <v>4257</v>
       </c>
       <c r="D157">
-        <v>0.0148586387434555</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>1.4858638743455501E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3252,10 +3363,10 @@
         <v>4236</v>
       </c>
       <c r="D158">
-        <v>0.01478534031413613</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>1.478534031413613E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -3266,10 +3377,10 @@
         <v>4007</v>
       </c>
       <c r="D159">
-        <v>0.01398603839441536</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>1.3986038394415361E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -3280,10 +3391,10 @@
         <v>3839</v>
       </c>
       <c r="D160">
-        <v>0.01339965095986038</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>1.3399650959860379E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -3294,10 +3405,10 @@
         <v>3764</v>
       </c>
       <c r="D161">
-        <v>0.01313787085514834</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>1.313787085514834E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -3308,10 +3419,10 @@
         <v>3526</v>
       </c>
       <c r="D162">
-        <v>0.01230715532286213</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>1.230715532286213E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -3322,10 +3433,10 @@
         <v>3216</v>
       </c>
       <c r="D163">
-        <v>0.01122513089005236</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>1.122513089005236E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -3336,10 +3447,10 @@
         <v>3090</v>
       </c>
       <c r="D164">
-        <v>0.01078534031413613</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>1.0785340314136129E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -3350,10 +3461,10 @@
         <v>2917</v>
       </c>
       <c r="D165">
-        <v>0.01018150087260035</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>1.0181500872600349E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -3364,10 +3475,10 @@
         <v>261064</v>
       </c>
       <c r="D166">
-        <v>0.91121815008726</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>0.91121815008726004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -3378,10 +3489,10 @@
         <v>25436</v>
       </c>
       <c r="D167">
-        <v>0.08878184991273996</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>8.8781849912739963E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -3392,10 +3503,10 @@
         <v>228108</v>
       </c>
       <c r="D168">
-        <v>0.7961884816753927</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>0.79618848167539269</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -3406,10 +3517,10 @@
         <v>14457</v>
       </c>
       <c r="D169">
-        <v>0.0504607329842932</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>5.0460732984293197E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -3420,10 +3531,10 @@
         <v>12551</v>
       </c>
       <c r="D170">
-        <v>0.04380802792321117</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>4.3808027923211167E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -3434,10 +3545,10 @@
         <v>6526</v>
       </c>
       <c r="D171">
-        <v>0.02277835951134381</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>2.2778359511343809E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -3448,10 +3559,10 @@
         <v>4277</v>
       </c>
       <c r="D172">
-        <v>0.01492844677137871</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>1.4928446771378711E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -3462,10 +3573,10 @@
         <v>3933</v>
       </c>
       <c r="D173">
-        <v>0.01372774869109948</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>1.3727748691099479E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -3476,10 +3587,10 @@
         <v>3241</v>
       </c>
       <c r="D174">
-        <v>0.01131239092495637</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>1.131239092495637E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -3490,10 +3601,10 @@
         <v>3226</v>
       </c>
       <c r="D175">
-        <v>0.01126003490401396</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>1.126003490401396E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -3504,10 +3615,10 @@
         <v>2546</v>
       </c>
       <c r="D176">
-        <v>0.008886561954624781</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>8.8865619546247814E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -3518,10 +3629,10 @@
         <v>2055</v>
       </c>
       <c r="D177">
-        <v>0.007172774869109948</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>7.1727748691099479E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -3532,10 +3643,10 @@
         <v>1726</v>
       </c>
       <c r="D178">
-        <v>0.006024432809773124</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>6.0244328097731241E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -3546,10 +3657,10 @@
         <v>1514</v>
       </c>
       <c r="D179">
-        <v>0.005284467713787085</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>5.2844677137870852E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -3560,10 +3671,10 @@
         <v>924</v>
       </c>
       <c r="D180">
-        <v>0.003225130890052356</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>3.2251308900523561E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -3574,10 +3685,10 @@
         <v>499</v>
       </c>
       <c r="D181">
-        <v>0.001741710296684119</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>1.7417102966841189E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -3588,10 +3699,10 @@
         <v>310</v>
       </c>
       <c r="D182">
-        <v>0.001082024432809773</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>1.0820244328097731E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -3602,10 +3713,10 @@
         <v>258</v>
       </c>
       <c r="D183">
-        <v>0.0009005235602094241</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>9.0052356020942407E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -3616,10 +3727,10 @@
         <v>159</v>
       </c>
       <c r="D184">
-        <v>0.0005549738219895288</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>5.549738219895288E-4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -3630,10 +3741,10 @@
         <v>63</v>
       </c>
       <c r="D185">
-        <v>0.0002198952879581152</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>2.1989528795811521E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -3644,10 +3755,10 @@
         <v>52</v>
       </c>
       <c r="D186">
-        <v>0.000181500872600349</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>1.8150087260034901E-4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -3658,10 +3769,10 @@
         <v>52</v>
       </c>
       <c r="D187">
-        <v>0.000181500872600349</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>1.8150087260034901E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -3672,10 +3783,10 @@
         <v>18</v>
       </c>
       <c r="D188">
-        <v>6.282722513089006E-05</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>6.2827225130890059E-5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -3686,10 +3797,10 @@
         <v>5</v>
       </c>
       <c r="D189">
-        <v>1.745200698080279E-05</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>1.7452006980802788E-5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -3700,10 +3811,10 @@
         <v>9632</v>
       </c>
       <c r="D190">
-        <v>0.0336195462478185</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>3.3619546247818502E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -3711,10 +3822,10 @@
         <v>8346</v>
       </c>
       <c r="D191">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -3725,10 +3836,10 @@
         <v>7230</v>
       </c>
       <c r="D192">
-        <v>0.02523560209424084</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>2.523560209424084E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -3739,10 +3850,10 @@
         <v>6880</v>
       </c>
       <c r="D193">
-        <v>0.02401396160558464</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>2.4013961605584638E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -3753,10 +3864,10 @@
         <v>5732</v>
       </c>
       <c r="D194">
-        <v>0.02000698080279232</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>2.0006980802792319E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -3767,10 +3878,10 @@
         <v>4825</v>
       </c>
       <c r="D195">
-        <v>0.01684118673647469</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>1.6841186736474691E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -3781,10 +3892,10 @@
         <v>4659</v>
       </c>
       <c r="D196">
-        <v>0.01626178010471204</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>1.6261780104712041E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>15</v>
       </c>
@@ -3795,10 +3906,10 @@
         <v>4428</v>
       </c>
       <c r="D197">
-        <v>0.01545549738219895</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>1.545549738219895E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -3809,10 +3920,10 @@
         <v>4370</v>
       </c>
       <c r="D198">
-        <v>0.01525305410122164</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>1.5253054101221641E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -3823,10 +3934,10 @@
         <v>4257</v>
       </c>
       <c r="D199">
-        <v>0.0148586387434555</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>1.4858638743455501E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -3837,10 +3948,10 @@
         <v>3769</v>
       </c>
       <c r="D200">
-        <v>0.01315532286212914</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>1.3155322862129139E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -3851,10 +3962,10 @@
         <v>3761</v>
       </c>
       <c r="D201">
-        <v>0.01312739965095986</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>1.312739965095986E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -3865,10 +3976,10 @@
         <v>3603</v>
       </c>
       <c r="D202">
-        <v>0.01257591623036649</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>1.2575916230366489E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -3879,10 +3990,10 @@
         <v>3437</v>
       </c>
       <c r="D203">
-        <v>0.01199650959860384</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>1.1996509598603841E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>15</v>
       </c>
@@ -3893,10 +4004,10 @@
         <v>3214</v>
       </c>
       <c r="D204">
-        <v>0.01121815008726004</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>1.1218150087260041E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -3907,10 +4018,10 @@
         <v>3191</v>
       </c>
       <c r="D205">
-        <v>0.01113787085514834</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>1.113787085514834E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -3921,10 +4032,10 @@
         <v>3102</v>
       </c>
       <c r="D206">
-        <v>0.01082722513089005</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>1.082722513089005E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -3935,10 +4046,10 @@
         <v>3051</v>
       </c>
       <c r="D207">
-        <v>0.01064921465968586</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>1.064921465968586E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -3949,10 +4060,10 @@
         <v>3014</v>
       </c>
       <c r="D208">
-        <v>0.01052006980802792</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>1.0520069808027921E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -3963,10 +4074,10 @@
         <v>2891</v>
       </c>
       <c r="D209">
-        <v>0.01009075043630017</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>1.009075043630017E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -3977,10 +4088,10 @@
         <v>2887</v>
       </c>
       <c r="D210">
-        <v>0.01007678883071553</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>1.0076788830715531E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -3991,10 +4102,10 @@
         <v>2868</v>
       </c>
       <c r="D211">
-        <v>0.01001047120418848</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>1.001047120418848E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -4005,10 +4116,10 @@
         <v>2567</v>
       </c>
       <c r="D212">
-        <v>0.008959860383944154</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>8.9598603839441543E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>15</v>
       </c>
@@ -4019,10 +4130,10 @@
         <v>2544</v>
       </c>
       <c r="D213">
-        <v>0.008879581151832461</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>8.8795811518324608E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -4033,10 +4144,10 @@
         <v>2469</v>
       </c>
       <c r="D214">
-        <v>0.008617801047120418</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>8.6178010471204183E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>15</v>
       </c>
@@ -4047,10 +4158,10 @@
         <v>2465</v>
       </c>
       <c r="D215">
-        <v>0.008603839441535777</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>8.603839441535777E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -4061,10 +4172,10 @@
         <v>1322</v>
       </c>
       <c r="D216">
-        <v>0.004614310645724258</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>4.6143106457242579E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -4075,10 +4186,10 @@
         <v>1247</v>
       </c>
       <c r="D217">
-        <v>0.004352530541012216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>4.3525305410122162E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -4089,10 +4200,10 @@
         <v>905</v>
       </c>
       <c r="D218">
-        <v>0.003158813263525305</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>3.1588132635253052E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -4103,10 +4214,10 @@
         <v>890</v>
       </c>
       <c r="D219">
-        <v>0.003106457242582897</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>3.1064572425828969E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -4117,10 +4228,10 @@
         <v>799</v>
       </c>
       <c r="D220">
-        <v>0.002788830715532286</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>2.7888307155322862E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>16</v>
       </c>
@@ -4131,10 +4242,10 @@
         <v>782</v>
       </c>
       <c r="D221">
-        <v>0.002729493891797557</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>2.7294938917975572E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>16</v>
       </c>
@@ -4145,10 +4256,10 @@
         <v>775</v>
       </c>
       <c r="D222">
-        <v>0.002705061082024433</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>2.7050610820244332E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -4159,10 +4270,10 @@
         <v>773</v>
       </c>
       <c r="D223">
-        <v>0.002698080279232112</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>2.6980802792321121E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>16</v>
       </c>
@@ -4173,10 +4284,10 @@
         <v>749</v>
       </c>
       <c r="D224">
-        <v>0.002614310645724258</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>2.6143106457242578E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>16</v>
       </c>
@@ -4187,10 +4298,10 @@
         <v>730</v>
       </c>
       <c r="D225">
-        <v>0.002547993019197208</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>2.5479930191972082E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>16</v>
       </c>
@@ -4201,10 +4312,10 @@
         <v>714</v>
       </c>
       <c r="D226">
-        <v>0.002492146596858639</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>2.4921465968586391E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>16</v>
       </c>
@@ -4215,10 +4326,10 @@
         <v>714</v>
       </c>
       <c r="D227">
-        <v>0.002492146596858639</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>2.4921465968586391E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>16</v>
       </c>
@@ -4229,10 +4340,10 @@
         <v>706</v>
       </c>
       <c r="D228">
-        <v>0.002464223385689354</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>2.4642233856893539E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -4243,38 +4354,38 @@
         <v>701</v>
       </c>
       <c r="D229">
-        <v>0.002446771378708551</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>2.446771378708551E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>16</v>
       </c>
       <c r="B230">
-        <v>132</v>
+        <v>2056</v>
       </c>
       <c r="C230">
         <v>677</v>
       </c>
       <c r="D230">
-        <v>0.002363001745200698</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>2.363001745200698E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>16</v>
       </c>
       <c r="B231">
-        <v>2056</v>
+        <v>132</v>
       </c>
       <c r="C231">
         <v>677</v>
       </c>
       <c r="D231">
-        <v>0.002363001745200698</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>2.363001745200698E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>16</v>
       </c>
@@ -4285,10 +4396,10 @@
         <v>671</v>
       </c>
       <c r="D232">
-        <v>0.002342059336823735</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>2.3420593368237352E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>16</v>
       </c>
@@ -4299,10 +4410,10 @@
         <v>669</v>
       </c>
       <c r="D233">
-        <v>0.002335078534031414</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>2.3350785340314141E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -4313,10 +4424,10 @@
         <v>657</v>
       </c>
       <c r="D234">
-        <v>0.002293193717277487</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>2.2931937172774872E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>16</v>
       </c>
@@ -4327,10 +4438,10 @@
         <v>655</v>
       </c>
       <c r="D235">
-        <v>0.002286212914485166</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>2.2862129144851661E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>16</v>
       </c>
@@ -4341,10 +4452,10 @@
         <v>653</v>
       </c>
       <c r="D236">
-        <v>0.002279232111692845</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>2.279232111692845E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>16</v>
       </c>
@@ -4355,10 +4466,10 @@
         <v>648</v>
       </c>
       <c r="D237">
-        <v>0.002261780104712042</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>2.2617801047120421E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>16</v>
       </c>
@@ -4369,10 +4480,10 @@
         <v>633</v>
       </c>
       <c r="D238">
-        <v>0.002209424083769633</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>2.2094240837696329E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>16</v>
       </c>
@@ -4383,10 +4494,10 @@
         <v>612</v>
       </c>
       <c r="D239">
-        <v>0.002136125654450262</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>2.1361256544502622E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>16</v>
       </c>
@@ -4397,10 +4508,10 @@
         <v>610</v>
       </c>
       <c r="D240">
-        <v>0.002129144851657941</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>2.1291448516579411E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -4408,10 +4519,10 @@
         <v>58392</v>
       </c>
       <c r="D241">
-        <v>0.2038115183246073</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>0.20381151832460731</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -4422,10 +4533,10 @@
         <v>1153</v>
       </c>
       <c r="D242">
-        <v>0.004024432809773124</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>4.0244328097731241E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -4436,10 +4547,10 @@
         <v>1026</v>
       </c>
       <c r="D243">
-        <v>0.003581151832460733</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>3.581151832460733E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -4450,10 +4561,10 @@
         <v>854</v>
       </c>
       <c r="D244">
-        <v>0.002980802792321117</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>2.980802792321117E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -4464,10 +4575,10 @@
         <v>728</v>
       </c>
       <c r="D245">
-        <v>0.002541012216404887</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>2.5410122164048871E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -4478,10 +4589,10 @@
         <v>641</v>
       </c>
       <c r="D246">
-        <v>0.002237347294938918</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>2.2373472949389181E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -4492,10 +4603,10 @@
         <v>574</v>
       </c>
       <c r="D247">
-        <v>0.00200349040139616</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>2.0034904013961599E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -4506,10 +4617,10 @@
         <v>466</v>
       </c>
       <c r="D248">
-        <v>0.00162652705061082</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>1.62652705061082E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -4520,10 +4631,10 @@
         <v>459</v>
       </c>
       <c r="D249">
-        <v>0.001602094240837696</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>1.602094240837696E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -4534,10 +4645,10 @@
         <v>435</v>
       </c>
       <c r="D250">
-        <v>0.001518324607329843</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>1.518324607329843E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -4548,10 +4659,10 @@
         <v>424</v>
       </c>
       <c r="D251">
-        <v>0.001479930191972077</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>1.4799301919720771E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -4562,10 +4673,10 @@
         <v>409</v>
       </c>
       <c r="D252">
-        <v>0.001427574171029668</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>1.4275741710296681E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -4576,10 +4687,10 @@
         <v>393</v>
       </c>
       <c r="D253">
-        <v>0.001371727748691099</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>1.371727748691099E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -4590,10 +4701,10 @@
         <v>384</v>
       </c>
       <c r="D254">
-        <v>0.001340314136125654</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>1.3403141361256539E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -4604,10 +4715,10 @@
         <v>373</v>
       </c>
       <c r="D255">
-        <v>0.001301919720767888</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>1.301919720767888E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -4618,10 +4729,10 @@
         <v>343</v>
       </c>
       <c r="D256">
-        <v>0.001197207678883072</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>1.197207678883072E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -4632,10 +4743,10 @@
         <v>343</v>
       </c>
       <c r="D257">
-        <v>0.001197207678883072</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>1.197207678883072E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -4646,10 +4757,10 @@
         <v>334</v>
       </c>
       <c r="D258">
-        <v>0.001165794066317626</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>1.165794066317626E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -4660,10 +4771,10 @@
         <v>327</v>
       </c>
       <c r="D259">
-        <v>0.001141361256544503</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>1.1413612565445029E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -4674,10 +4785,10 @@
         <v>312</v>
       </c>
       <c r="D260">
-        <v>0.001089005235602094</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>1.0890052356020939E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -4688,10 +4799,10 @@
         <v>309</v>
       </c>
       <c r="D261">
-        <v>0.001078534031413613</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>1.0785340314136129E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -4702,10 +4813,10 @@
         <v>304</v>
       </c>
       <c r="D262">
-        <v>0.00106108202443281</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>1.06108202443281E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -4716,10 +4827,10 @@
         <v>296</v>
       </c>
       <c r="D263">
-        <v>0.001033158813263525</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>1.033158813263525E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -4730,10 +4841,10 @@
         <v>279</v>
       </c>
       <c r="D264">
-        <v>0.0009738219895287959</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>9.7382198952879586E-4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -4744,10 +4855,10 @@
         <v>259</v>
       </c>
       <c r="D265">
-        <v>0.0009040139616055846</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>9.0401396160558461E-4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -4758,10 +4869,10 @@
         <v>249</v>
       </c>
       <c r="D266">
-        <v>0.0008691099476439791</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
+        <v>8.6910994764397909E-4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>18</v>
       </c>
@@ -4775,7 +4886,7 @@
         <v>0.906848167539267</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>18</v>
       </c>
@@ -4786,10 +4897,10 @@
         <v>26430</v>
       </c>
       <c r="D268">
-        <v>0.09225130890052356</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>9.2251308900523563E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>18</v>
       </c>
@@ -4800,10 +4911,10 @@
         <v>258</v>
       </c>
       <c r="D269">
-        <v>0.0009005235602094241</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+        <v>9.0052356020942407E-4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -4814,10 +4925,10 @@
         <v>4</v>
       </c>
       <c r="D270">
-        <v>1.396160558464223E-05</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>1.3961605584642231E-5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -4828,10 +4939,10 @@
         <v>4</v>
       </c>
       <c r="D271">
-        <v>1.396160558464223E-05</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
+        <v>1.3961605584642231E-5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -4842,178 +4953,178 @@
         <v>4</v>
       </c>
       <c r="D272">
-        <v>1.396160558464223E-05</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+        <v>1.3961605584642231E-5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>19</v>
       </c>
       <c r="B273">
-        <v>1541544871000</v>
+        <v>1538832860000</v>
       </c>
       <c r="C273">
         <v>3</v>
       </c>
       <c r="D273">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>19</v>
       </c>
       <c r="B274">
-        <v>1538858551000</v>
+        <v>1540869687000</v>
       </c>
       <c r="C274">
         <v>3</v>
       </c>
       <c r="D274">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>19</v>
       </c>
       <c r="B275">
-        <v>1540869687000</v>
+        <v>1542820461000</v>
       </c>
       <c r="C275">
         <v>3</v>
       </c>
       <c r="D275">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>19</v>
       </c>
       <c r="B276">
-        <v>1539191076000</v>
+        <v>1539996675000</v>
       </c>
       <c r="C276">
         <v>3</v>
       </c>
       <c r="D276">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>19</v>
       </c>
       <c r="B277">
-        <v>1539996675000</v>
+        <v>1542663435000</v>
       </c>
       <c r="C277">
         <v>3</v>
       </c>
       <c r="D277">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>19</v>
       </c>
       <c r="B278">
-        <v>1539247652000</v>
+        <v>1541526859000</v>
       </c>
       <c r="C278">
         <v>3</v>
       </c>
       <c r="D278">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>19</v>
       </c>
       <c r="B279">
-        <v>1538778922000</v>
+        <v>1539247652000</v>
       </c>
       <c r="C279">
         <v>3</v>
       </c>
       <c r="D279">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>19</v>
       </c>
       <c r="B280">
-        <v>1539070175000</v>
+        <v>1543271891000</v>
       </c>
       <c r="C280">
         <v>3</v>
       </c>
       <c r="D280">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>19</v>
       </c>
       <c r="B281">
-        <v>1539682547000</v>
+        <v>1539070175000</v>
       </c>
       <c r="C281">
         <v>3</v>
       </c>
       <c r="D281">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>19</v>
       </c>
       <c r="B282">
-        <v>1543271891000</v>
+        <v>1541101796000</v>
       </c>
       <c r="C282">
         <v>3</v>
       </c>
       <c r="D282">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>19</v>
       </c>
       <c r="B283">
-        <v>1542820461000</v>
+        <v>1539191076000</v>
       </c>
       <c r="C283">
         <v>3</v>
       </c>
       <c r="D283">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>19</v>
       </c>
       <c r="B284">
-        <v>1542663435000</v>
+        <v>1538858551000</v>
       </c>
       <c r="C284">
         <v>3</v>
       </c>
       <c r="D284">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>19</v>
       </c>
@@ -5024,24 +5135,24 @@
         <v>3</v>
       </c>
       <c r="D285">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>19</v>
       </c>
       <c r="B286">
-        <v>1539721234000</v>
+        <v>1540456067000</v>
       </c>
       <c r="C286">
         <v>3</v>
       </c>
       <c r="D286">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -5052,108 +5163,108 @@
         <v>3</v>
       </c>
       <c r="D287">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>19</v>
       </c>
       <c r="B288">
-        <v>1541101796000</v>
+        <v>1539682547000</v>
       </c>
       <c r="C288">
         <v>3</v>
       </c>
       <c r="D288">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>19</v>
       </c>
       <c r="B289">
-        <v>1541518229000</v>
+        <v>1541682160000</v>
       </c>
       <c r="C289">
         <v>3</v>
       </c>
       <c r="D289">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>19</v>
       </c>
       <c r="B290">
-        <v>1540456067000</v>
+        <v>1538778922000</v>
       </c>
       <c r="C290">
         <v>3</v>
       </c>
       <c r="D290">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>19</v>
       </c>
       <c r="B291">
-        <v>1543224829000</v>
+        <v>1539979564000</v>
       </c>
       <c r="C291">
         <v>3</v>
       </c>
       <c r="D291">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>19</v>
       </c>
       <c r="B292">
-        <v>1541526859000</v>
+        <v>1539721234000</v>
       </c>
       <c r="C292">
         <v>3</v>
       </c>
       <c r="D292">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>19</v>
       </c>
       <c r="B293">
-        <v>1538832860000</v>
+        <v>1541544871000</v>
       </c>
       <c r="C293">
         <v>3</v>
       </c>
       <c r="D293">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>19</v>
       </c>
       <c r="B294">
-        <v>1541682160000</v>
+        <v>1541518229000</v>
       </c>
       <c r="C294">
         <v>3</v>
       </c>
       <c r="D294">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -5164,10 +5275,10 @@
         <v>22751</v>
       </c>
       <c r="D295">
-        <v>0.07941012216404887</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
+        <v>7.9410122164048871E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>20</v>
       </c>
@@ -5178,10 +5289,10 @@
         <v>19611</v>
       </c>
       <c r="D296">
-        <v>0.06845026178010472</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
+        <v>6.8450261780104715E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>20</v>
       </c>
@@ -5192,10 +5303,10 @@
         <v>18448</v>
       </c>
       <c r="D297">
-        <v>0.06439092495636999</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
+        <v>6.4390924956369985E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>20</v>
       </c>
@@ -5206,10 +5317,10 @@
         <v>17348</v>
       </c>
       <c r="D298">
-        <v>0.06055148342059337</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
+        <v>6.0551483420593369E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -5220,10 +5331,10 @@
         <v>16700</v>
       </c>
       <c r="D299">
-        <v>0.05828970331588133</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
+        <v>5.8289703315881333E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -5234,10 +5345,10 @@
         <v>15395</v>
       </c>
       <c r="D300">
-        <v>0.0537347294938918</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
+        <v>5.3734729493891797E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>20</v>
       </c>
@@ -5248,10 +5359,10 @@
         <v>14598</v>
       </c>
       <c r="D301">
-        <v>0.05095287958115183</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
+        <v>5.0952879581151828E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>20</v>
       </c>
@@ -5262,10 +5373,10 @@
         <v>10300</v>
       </c>
       <c r="D302">
-        <v>0.03595113438045375</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
+        <v>3.5951134380453748E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>20</v>
       </c>
@@ -5276,10 +5387,10 @@
         <v>8912</v>
       </c>
       <c r="D303">
-        <v>0.0311064572425829</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
+        <v>3.1106457242582899E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>20</v>
       </c>
@@ -5290,10 +5401,10 @@
         <v>8624</v>
       </c>
       <c r="D304">
-        <v>0.03010122164048866</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
+        <v>3.010122164048866E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>20</v>
       </c>
@@ -5301,10 +5412,10 @@
         <v>8346</v>
       </c>
       <c r="D305">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -5315,10 +5426,10 @@
         <v>8094</v>
       </c>
       <c r="D306">
-        <v>0.02825130890052356</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
+        <v>2.8251308900523561E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -5329,10 +5440,10 @@
         <v>7923</v>
       </c>
       <c r="D307">
-        <v>0.02765445026178011</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
+        <v>2.7654450261780109E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>20</v>
       </c>
@@ -5343,10 +5454,10 @@
         <v>7906</v>
       </c>
       <c r="D308">
-        <v>0.02759511343804538</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
+        <v>2.7595113438045379E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>20</v>
       </c>
@@ -5357,10 +5468,10 @@
         <v>7624</v>
       </c>
       <c r="D309">
-        <v>0.0266108202443281</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
+        <v>2.66108202443281E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -5371,10 +5482,10 @@
         <v>6417</v>
       </c>
       <c r="D310">
-        <v>0.02239790575916231</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
+        <v>2.2397905759162309E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>20</v>
       </c>
@@ -5385,10 +5496,10 @@
         <v>5989</v>
       </c>
       <c r="D311">
-        <v>0.02090401396160559</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
+        <v>2.0904013961605589E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>20</v>
       </c>
@@ -5399,10 +5510,10 @@
         <v>5716</v>
       </c>
       <c r="D312">
-        <v>0.01995113438045375</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
+        <v>1.9951134380453751E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>20</v>
       </c>
@@ -5413,10 +5524,10 @@
         <v>5238</v>
       </c>
       <c r="D313">
-        <v>0.01828272251308901</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
+        <v>1.828272251308901E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>20</v>
       </c>
@@ -5427,10 +5538,10 @@
         <v>4917</v>
       </c>
       <c r="D314">
-        <v>0.01716230366492147</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
+        <v>1.7162303664921469E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>20</v>
       </c>
@@ -5441,10 +5552,10 @@
         <v>4663</v>
       </c>
       <c r="D315">
-        <v>0.01627574171029668</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
+        <v>1.6275741710296679E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -5455,10 +5566,10 @@
         <v>4103</v>
       </c>
       <c r="D316">
-        <v>0.01432111692844677</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
+        <v>1.4321116928446769E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>20</v>
       </c>
@@ -5469,10 +5580,10 @@
         <v>3655</v>
       </c>
       <c r="D317">
-        <v>0.01275741710296684</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
+        <v>1.275741710296684E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>20</v>
       </c>
@@ -5483,10 +5594,10 @@
         <v>3214</v>
       </c>
       <c r="D318">
-        <v>0.01121815008726004</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
+        <v>1.1218150087260041E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>20</v>
       </c>
@@ -5497,10 +5608,10 @@
         <v>2868</v>
       </c>
       <c r="D319">
-        <v>0.01001047120418848</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
+        <v>1.001047120418848E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>20</v>
       </c>
@@ -5511,10 +5622,10 @@
         <v>2842</v>
       </c>
       <c r="D320">
-        <v>0.009919720767888307</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
+        <v>9.9197207678883067E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>21</v>
       </c>
@@ -5525,10 +5636,10 @@
         <v>9632</v>
       </c>
       <c r="D321">
-        <v>0.0336195462478185</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4">
+        <v>3.3619546247818502E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>21</v>
       </c>
@@ -5536,10 +5647,10 @@
         <v>8346</v>
       </c>
       <c r="D322">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>21</v>
       </c>
@@ -5550,10 +5661,10 @@
         <v>7230</v>
       </c>
       <c r="D323">
-        <v>0.02523560209424084</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4">
+        <v>2.523560209424084E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -5564,10 +5675,10 @@
         <v>6880</v>
       </c>
       <c r="D324">
-        <v>0.02401396160558464</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4">
+        <v>2.4013961605584638E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>21</v>
       </c>
@@ -5578,10 +5689,10 @@
         <v>5732</v>
       </c>
       <c r="D325">
-        <v>0.02000698080279232</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4">
+        <v>2.0006980802792319E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>21</v>
       </c>
@@ -5592,10 +5703,10 @@
         <v>4825</v>
       </c>
       <c r="D326">
-        <v>0.01684118673647469</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4">
+        <v>1.6841186736474691E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>21</v>
       </c>
@@ -5606,10 +5717,10 @@
         <v>4659</v>
       </c>
       <c r="D327">
-        <v>0.01626178010471204</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4">
+        <v>1.6261780104712041E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>21</v>
       </c>
@@ -5620,10 +5731,10 @@
         <v>4428</v>
       </c>
       <c r="D328">
-        <v>0.01545549738219895</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
+        <v>1.545549738219895E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>21</v>
       </c>
@@ -5634,10 +5745,10 @@
         <v>4370</v>
       </c>
       <c r="D329">
-        <v>0.01525305410122164</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4">
+        <v>1.5253054101221641E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>21</v>
       </c>
@@ -5648,10 +5759,10 @@
         <v>4257</v>
       </c>
       <c r="D330">
-        <v>0.0148586387434555</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4">
+        <v>1.4858638743455501E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>21</v>
       </c>
@@ -5662,10 +5773,10 @@
         <v>3769</v>
       </c>
       <c r="D331">
-        <v>0.01315532286212914</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4">
+        <v>1.3155322862129139E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>21</v>
       </c>
@@ -5676,10 +5787,10 @@
         <v>3761</v>
       </c>
       <c r="D332">
-        <v>0.01312739965095986</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4">
+        <v>1.312739965095986E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>21</v>
       </c>
@@ -5690,10 +5801,10 @@
         <v>3603</v>
       </c>
       <c r="D333">
-        <v>0.01257591623036649</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4">
+        <v>1.2575916230366489E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>21</v>
       </c>
@@ -5704,10 +5815,10 @@
         <v>3437</v>
       </c>
       <c r="D334">
-        <v>0.01199650959860384</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4">
+        <v>1.1996509598603841E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>21</v>
       </c>
@@ -5718,10 +5829,10 @@
         <v>3214</v>
       </c>
       <c r="D335">
-        <v>0.01121815008726004</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4">
+        <v>1.1218150087260041E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>21</v>
       </c>
@@ -5732,10 +5843,10 @@
         <v>3191</v>
       </c>
       <c r="D336">
-        <v>0.01113787085514834</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
+        <v>1.113787085514834E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>21</v>
       </c>
@@ -5746,10 +5857,10 @@
         <v>3102</v>
       </c>
       <c r="D337">
-        <v>0.01082722513089005</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
+        <v>1.082722513089005E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>21</v>
       </c>
@@ -5760,10 +5871,10 @@
         <v>3051</v>
       </c>
       <c r="D338">
-        <v>0.01064921465968586</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4">
+        <v>1.064921465968586E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>21</v>
       </c>
@@ -5774,10 +5885,10 @@
         <v>3014</v>
       </c>
       <c r="D339">
-        <v>0.01052006980802792</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4">
+        <v>1.0520069808027921E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>21</v>
       </c>
@@ -5788,10 +5899,10 @@
         <v>2891</v>
       </c>
       <c r="D340">
-        <v>0.01009075043630017</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4">
+        <v>1.009075043630017E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>21</v>
       </c>
@@ -5802,10 +5913,10 @@
         <v>2887</v>
       </c>
       <c r="D341">
-        <v>0.01007678883071553</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4">
+        <v>1.0076788830715531E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>21</v>
       </c>
@@ -5816,10 +5927,10 @@
         <v>2868</v>
       </c>
       <c r="D342">
-        <v>0.01001047120418848</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
+        <v>1.001047120418848E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>21</v>
       </c>
@@ -5830,10 +5941,10 @@
         <v>2567</v>
       </c>
       <c r="D343">
-        <v>0.008959860383944154</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
+        <v>8.9598603839441543E-3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>21</v>
       </c>
@@ -5844,10 +5955,10 @@
         <v>2544</v>
       </c>
       <c r="D344">
-        <v>0.008879581151832461</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
+        <v>8.8795811518324608E-3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>21</v>
       </c>
@@ -5858,10 +5969,13 @@
         <v>2469</v>
       </c>
       <c r="D345">
-        <v>0.008617801047120418</v>
+        <v>8.6178010471204183E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/summaries/value_summary.xlsx
+++ b/summaries/value_summary.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ross-\Documents\GitHub\udacity-capstone\summaries\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3AB2EF-2701-4AB2-AB44-83B04E50F6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="3735" windowWidth="38700" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -145,12 +139,12 @@
     <t>Harmonia</t>
   </si>
   <si>
+    <t>Daft Punk</t>
+  </si>
+  <si>
     <t>Guns N' Roses</t>
   </si>
   <si>
-    <t>Daft Punk</t>
-  </si>
-  <si>
     <t>Metallica</t>
   </si>
   <si>
@@ -472,10 +466,10 @@
     <t>Submit Downgrade</t>
   </si>
   <si>
+    <t>Cancellation Confirmation</t>
+  </si>
+  <si>
     <t>Cancel</t>
-  </si>
-  <si>
-    <t>Cancellation Confirmation</t>
   </si>
   <si>
     <t>Register</t>
@@ -709,8 +703,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,7 +744,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -769,74 +765,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDC4534E-5EB7-4B71-8457-E9A9945A3C3D}" name="Table1" displayName="Table1" ref="A1:D345" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:D345" xr:uid="{A1A3E87C-0F81-4FBD-9AAD-0BD5AD11F19C}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E3AB27B6-E1AC-486D-BE48-E45FCB4F9B6B}" name="field"/>
-    <tableColumn id="2" xr3:uid="{C0F134EC-3C28-4B0F-A802-7012DB5DB256}" name="value"/>
-    <tableColumn id="3" xr3:uid="{2EA7CB19-271F-4E42-843F-B7F1170AEA82}" name="count"/>
-    <tableColumn id="4" xr3:uid="{E9505DE6-359A-48C5-AE7C-AA93AC18E035}" name="percentage"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -882,7 +813,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -914,27 +845,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -966,24 +879,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1159,20 +1054,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="82" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1194,10 +1083,10 @@
         <v>58392</v>
       </c>
       <c r="D2">
-        <v>0.20381151832460731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.2038115183246073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1208,10 +1097,10 @@
         <v>1841</v>
       </c>
       <c r="D3">
-        <v>6.4258289703315883E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.006425828970331588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1222,10 +1111,10 @@
         <v>1813</v>
       </c>
       <c r="D4">
-        <v>6.3280977312390923E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.006328097731239092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1236,10 +1125,10 @@
         <v>1236</v>
       </c>
       <c r="D5">
-        <v>4.3141361256544501E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.00431413612565445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1250,10 +1139,10 @@
         <v>1135</v>
       </c>
       <c r="D6">
-        <v>3.9616055846422339E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003961605584642234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1264,10 +1153,10 @@
         <v>1133</v>
       </c>
       <c r="D7">
-        <v>3.9546247818499124E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003954624781849912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1278,10 +1167,10 @@
         <v>1125</v>
       </c>
       <c r="D8">
-        <v>3.9267015706806281E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003926701570680628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1292,10 +1181,10 @@
         <v>1090</v>
       </c>
       <c r="D9">
-        <v>3.8045375218150089E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003804537521815009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1306,10 +1195,10 @@
         <v>1044</v>
       </c>
       <c r="D10">
-        <v>3.6439790575916232E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003643979057591623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1320,10 +1209,10 @@
         <v>1007</v>
       </c>
       <c r="D11">
-        <v>3.514834205933683E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003514834205933683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1334,10 +1223,10 @@
         <v>953</v>
       </c>
       <c r="D12">
-        <v>3.326352530541012E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003326352530541012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1348,10 +1237,10 @@
         <v>884</v>
       </c>
       <c r="D13">
-        <v>3.0855148342059341E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003085514834205934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1362,10 +1251,10 @@
         <v>876</v>
       </c>
       <c r="D14">
-        <v>3.0575916230366489E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003057591623036649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1376,10 +1265,10 @@
         <v>854</v>
       </c>
       <c r="D15">
-        <v>2.980802792321117E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002980802792321117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1390,10 +1279,10 @@
         <v>840</v>
       </c>
       <c r="D16">
-        <v>2.931937172774869E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002931937172774869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1404,10 +1293,10 @@
         <v>828</v>
       </c>
       <c r="D17">
-        <v>2.8900523560209421E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002890052356020942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1418,10 +1307,10 @@
         <v>822</v>
       </c>
       <c r="D18">
-        <v>2.8691099476439788E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002869109947643979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1432,10 +1321,10 @@
         <v>787</v>
       </c>
       <c r="D19">
-        <v>2.7469458987783601E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.00274694589877836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1446,10 +1335,10 @@
         <v>781</v>
       </c>
       <c r="D20">
-        <v>2.726003490401396E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002726003490401396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1460,10 +1349,10 @@
         <v>729</v>
       </c>
       <c r="D21">
-        <v>2.544502617801047E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002544502617801047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1474,10 +1363,10 @@
         <v>713</v>
       </c>
       <c r="D22">
-        <v>2.4886561954624779E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002488656195462478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1488,10 +1377,10 @@
         <v>713</v>
       </c>
       <c r="D23">
-        <v>2.4886561954624779E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002488656195462478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1502,10 +1391,10 @@
         <v>697</v>
       </c>
       <c r="D24">
-        <v>2.4328097731239088E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002432809773123909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1516,10 +1405,10 @@
         <v>693</v>
       </c>
       <c r="D25">
-        <v>2.4188481675392671E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002418848167539267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1530,10 +1419,10 @@
         <v>643</v>
       </c>
       <c r="D26">
-        <v>2.2443280977312392E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002244328097731239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1544,10 +1433,10 @@
         <v>618</v>
       </c>
       <c r="D27">
-        <v>2.157068062827225E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002157068062827225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1558,10 +1447,10 @@
         <v>278102</v>
       </c>
       <c r="D28">
-        <v>0.97068760907504359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.9706876090750436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1572,10 +1461,10 @@
         <v>8249</v>
       </c>
       <c r="D29">
-        <v>2.8792321116928449E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02879232111692845</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1586,10 +1475,10 @@
         <v>97</v>
       </c>
       <c r="D30">
-        <v>3.3856893542757419E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0003385689354275742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1600,10 +1489,10 @@
         <v>52</v>
       </c>
       <c r="D31">
-        <v>1.8150087260034901E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.000181500872600349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1614,10 +1503,10 @@
         <v>9632</v>
       </c>
       <c r="D32">
-        <v>3.3619546247818502E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0336195462478185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1625,10 +1514,10 @@
         <v>8346</v>
       </c>
       <c r="D33">
-        <v>2.9130890052356018E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02913089005235602</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1639,10 +1528,10 @@
         <v>7970</v>
       </c>
       <c r="D34">
-        <v>2.781849912739965E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02781849912739965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1653,10 +1542,10 @@
         <v>6880</v>
       </c>
       <c r="D35">
-        <v>2.4013961605584638E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02401396160558464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1667,10 +1556,10 @@
         <v>5732</v>
       </c>
       <c r="D36">
-        <v>2.0006980802792319E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02000698080279232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1681,10 +1570,10 @@
         <v>5478</v>
       </c>
       <c r="D37">
-        <v>1.912041884816754E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01912041884816754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1695,10 +1584,10 @@
         <v>5209</v>
       </c>
       <c r="D38">
-        <v>1.8181500872600349E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01818150087260035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1709,10 +1598,10 @@
         <v>4989</v>
       </c>
       <c r="D39">
-        <v>1.741361256544503E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01741361256544503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1723,10 +1612,10 @@
         <v>4825</v>
       </c>
       <c r="D40">
-        <v>1.6841186736474691E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01684118673647469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1737,10 +1626,10 @@
         <v>4654</v>
       </c>
       <c r="D41">
-        <v>1.6244328097731239E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01624432809773124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1751,10 +1640,10 @@
         <v>4621</v>
       </c>
       <c r="D42">
-        <v>1.612914485165794E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01612914485165794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1765,10 +1654,10 @@
         <v>4428</v>
       </c>
       <c r="D43">
-        <v>1.545549738219895E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01545549738219895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1779,10 +1668,10 @@
         <v>4268</v>
       </c>
       <c r="D44">
-        <v>1.489703315881326E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01489703315881326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1793,10 +1682,10 @@
         <v>4257</v>
       </c>
       <c r="D45">
-        <v>1.4858638743455501E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0148586387434555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1807,10 +1696,10 @@
         <v>4246</v>
       </c>
       <c r="D46">
-        <v>1.4820244328097729E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01482024432809773</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1821,10 +1710,10 @@
         <v>4172</v>
       </c>
       <c r="D47">
-        <v>1.456195462478185E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01456195462478185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1835,10 +1724,10 @@
         <v>3769</v>
       </c>
       <c r="D48">
-        <v>1.3155322862129139E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01315532286212914</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1849,10 +1738,10 @@
         <v>3657</v>
       </c>
       <c r="D49">
-        <v>1.2764397905759161E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01276439790575916</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1863,10 +1752,10 @@
         <v>3603</v>
       </c>
       <c r="D50">
-        <v>1.2575916230366489E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01257591623036649</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1877,10 +1766,10 @@
         <v>3486</v>
       </c>
       <c r="D51">
-        <v>1.216753926701571E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01216753926701571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1891,10 +1780,10 @@
         <v>3437</v>
       </c>
       <c r="D52">
-        <v>1.1996509598603841E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01199650959860384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1905,10 +1794,10 @@
         <v>3385</v>
       </c>
       <c r="D53">
-        <v>1.181500872600349E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01181500872600349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1919,10 +1808,10 @@
         <v>3382</v>
       </c>
       <c r="D54">
-        <v>1.180453752181501E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01180453752181501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1933,10 +1822,10 @@
         <v>3191</v>
       </c>
       <c r="D55">
-        <v>1.113787085514834E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01113787085514834</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1947,10 +1836,10 @@
         <v>3102</v>
       </c>
       <c r="D56">
-        <v>1.082722513089005E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01082722513089005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1961,10 +1850,10 @@
         <v>3014</v>
       </c>
       <c r="D57">
-        <v>1.0520069808027921E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01052006980802792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1975,10 +1864,10 @@
         <v>154578</v>
       </c>
       <c r="D58">
-        <v>0.53953926701570676</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5395392670157068</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1989,10 +1878,10 @@
         <v>123576</v>
       </c>
       <c r="D59">
-        <v>0.43132984293193721</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.4313298429319372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2000,10 +1889,10 @@
         <v>8346</v>
       </c>
       <c r="D60">
-        <v>2.9130890052356018E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02913089005235602</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2014,10 +1903,10 @@
         <v>3278</v>
       </c>
       <c r="D61">
-        <v>1.144153577661431E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01144153577661431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2028,10 +1917,10 @@
         <v>3125</v>
       </c>
       <c r="D62">
-        <v>1.090750436300175E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01090750436300175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2042,10 +1931,10 @@
         <v>3067</v>
       </c>
       <c r="D63">
-        <v>1.0705061082024431E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01070506108202443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2056,10 +1945,10 @@
         <v>3013</v>
       </c>
       <c r="D64">
-        <v>1.0516579406631759E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01051657940663176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2070,10 +1959,10 @@
         <v>2977</v>
       </c>
       <c r="D65">
-        <v>1.0390924956369981E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01039092495636998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2084,10 +1973,10 @@
         <v>2925</v>
       </c>
       <c r="D66">
-        <v>1.020942408376963E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01020942408376963</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2098,10 +1987,10 @@
         <v>2886</v>
       </c>
       <c r="D67">
-        <v>1.007329842931937E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01007329842931937</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2112,10 +2001,10 @@
         <v>2857</v>
       </c>
       <c r="D68">
-        <v>9.9720767888307159E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.009972076788830716</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2126,10 +2015,10 @@
         <v>2816</v>
       </c>
       <c r="D69">
-        <v>9.8289703315881331E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.009828970331588133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2140,10 +2029,10 @@
         <v>2771</v>
       </c>
       <c r="D70">
-        <v>9.6719022687609072E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.009671902268760907</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2154,10 +2043,10 @@
         <v>2717</v>
       </c>
       <c r="D71">
-        <v>9.4834205933682376E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.009483420593368238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2168,10 +2057,10 @@
         <v>2672</v>
       </c>
       <c r="D72">
-        <v>9.3263525305410117E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.009326352530541012</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2182,10 +2071,10 @@
         <v>2636</v>
       </c>
       <c r="D73">
-        <v>9.2006980802792314E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.009200698080279231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2196,10 +2085,10 @@
         <v>2600</v>
       </c>
       <c r="D74">
-        <v>9.0750436300174528E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.009075043630017453</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2210,10 +2099,10 @@
         <v>2561</v>
       </c>
       <c r="D75">
-        <v>8.9389179755671906E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008938917975567191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2224,10 +2113,10 @@
         <v>2523</v>
       </c>
       <c r="D76">
-        <v>8.8062827225130896E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.00880628272251309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2238,10 +2127,10 @@
         <v>2497</v>
       </c>
       <c r="D77">
-        <v>8.7155322862129143E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008715532286212914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2252,10 +2141,10 @@
         <v>2461</v>
       </c>
       <c r="D78">
-        <v>8.5898778359511339E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008589877835951134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2266,10 +2155,10 @@
         <v>2417</v>
       </c>
       <c r="D79">
-        <v>8.4363001745200693E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008436300174520069</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2280,10 +2169,10 @@
         <v>2381</v>
       </c>
       <c r="D80">
-        <v>8.3106457242582889E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008310645724258289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2294,10 +2183,10 @@
         <v>2350</v>
       </c>
       <c r="D81">
-        <v>8.2024432809773128E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008202443280977313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2308,10 +2197,10 @@
         <v>2321</v>
       </c>
       <c r="D82">
-        <v>8.1012216404886556E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008101221640488656</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2322,10 +2211,10 @@
         <v>2294</v>
       </c>
       <c r="D83">
-        <v>8.0069808027923208E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008006980802792321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2336,10 +2225,10 @@
         <v>2262</v>
       </c>
       <c r="D84">
-        <v>7.8952879581151835E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.007895287958115184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2350,10 +2239,10 @@
         <v>2233</v>
       </c>
       <c r="D85">
-        <v>7.7940663176265272E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.007794066317626527</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2364,10 +2253,10 @@
         <v>14060</v>
       </c>
       <c r="D86">
-        <v>4.9075043630017447E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.04907504363001745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -2378,10 +2267,10 @@
         <v>9284</v>
       </c>
       <c r="D87">
-        <v>3.2404886561954623E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.03240488656195462</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -2392,10 +2281,10 @@
         <v>8410</v>
       </c>
       <c r="D88">
-        <v>2.93542757417103E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0293542757417103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2403,10 +2292,10 @@
         <v>8346</v>
       </c>
       <c r="D89">
-        <v>2.9130890052356018E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02913089005235602</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -2417,10 +2306,10 @@
         <v>7230</v>
       </c>
       <c r="D90">
-        <v>2.523560209424084E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02523560209424084</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -2431,10 +2320,10 @@
         <v>6106</v>
       </c>
       <c r="D91">
-        <v>2.1312390924956369E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02131239092495637</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -2445,10 +2334,10 @@
         <v>6105</v>
       </c>
       <c r="D92">
-        <v>2.1308900523560211E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02130890052356021</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2459,10 +2348,10 @@
         <v>5732</v>
       </c>
       <c r="D93">
-        <v>2.0006980802792319E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02000698080279232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -2473,10 +2362,10 @@
         <v>5217</v>
       </c>
       <c r="D94">
-        <v>1.8209424083769628E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01820942408376963</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -2487,10 +2376,10 @@
         <v>4831</v>
       </c>
       <c r="D95">
-        <v>1.6862129144851658E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01686212914485166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2501,10 +2390,10 @@
         <v>4825</v>
       </c>
       <c r="D96">
-        <v>1.6841186736474691E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01684118673647469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -2515,10 +2404,10 @@
         <v>4659</v>
       </c>
       <c r="D97">
-        <v>1.6261780104712041E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01626178010471204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -2529,10 +2418,10 @@
         <v>4461</v>
       </c>
       <c r="D98">
-        <v>1.557068062827225E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01557068062827225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2543,10 +2432,10 @@
         <v>4428</v>
       </c>
       <c r="D99">
-        <v>1.545549738219895E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01545549738219895</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -2557,10 +2446,10 @@
         <v>4370</v>
       </c>
       <c r="D100">
-        <v>1.5253054101221641E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01525305410122164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -2571,10 +2460,10 @@
         <v>4257</v>
       </c>
       <c r="D101">
-        <v>1.4858638743455501E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0148586387434555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -2585,10 +2474,10 @@
         <v>4002</v>
       </c>
       <c r="D102">
-        <v>1.396858638743455E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01396858638743455</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -2599,10 +2488,10 @@
         <v>3890</v>
       </c>
       <c r="D103">
-        <v>1.3577661431064571E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01357766143106457</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -2613,10 +2502,10 @@
         <v>3769</v>
       </c>
       <c r="D104">
-        <v>1.3155322862129139E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01315532286212914</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -2627,10 +2516,10 @@
         <v>3761</v>
       </c>
       <c r="D105">
-        <v>1.312739965095986E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01312739965095986</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -2641,10 +2530,10 @@
         <v>3483</v>
       </c>
       <c r="D106">
-        <v>1.2157068062827219E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01215706806282722</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -2655,10 +2544,10 @@
         <v>3437</v>
       </c>
       <c r="D107">
-        <v>1.1996509598603841E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01199650959860384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -2669,10 +2558,10 @@
         <v>3102</v>
       </c>
       <c r="D108">
-        <v>1.082722513089005E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01082722513089005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -2683,10 +2572,10 @@
         <v>3051</v>
       </c>
       <c r="D109">
-        <v>1.064921465968586E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01064921465968586</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -2697,10 +2586,10 @@
         <v>3014</v>
       </c>
       <c r="D110">
-        <v>1.0520069808027921E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01052006980802792</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -2711,10 +2600,10 @@
         <v>2809</v>
       </c>
       <c r="D111">
-        <v>9.8045375218150082E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.009804537521815008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -2722,10 +2611,10 @@
         <v>58392</v>
       </c>
       <c r="D112">
-        <v>0.20381151832460731</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.2038115183246073</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -2736,66 +2625,66 @@
         <v>1205</v>
       </c>
       <c r="D113">
-        <v>4.2059336823734731E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.004205933682373473</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114">
-        <v>348.57751000000002</v>
+        <v>348.57751</v>
       </c>
       <c r="C114">
         <v>1037</v>
       </c>
       <c r="D114">
-        <v>3.6195462478184992E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003619546247818499</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>10</v>
       </c>
       <c r="B115">
-        <v>201.79545999999999</v>
+        <v>201.79546</v>
       </c>
       <c r="C115">
         <v>908</v>
       </c>
       <c r="D115">
-        <v>3.169284467713787E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003169284467713787</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>10</v>
       </c>
       <c r="B116">
-        <v>655.77751000000001</v>
+        <v>655.77751</v>
       </c>
       <c r="C116">
         <v>730</v>
       </c>
       <c r="D116">
-        <v>2.5479930191972082E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002547993019197208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>10</v>
       </c>
       <c r="B117">
-        <v>277.15872999999999</v>
+        <v>277.15873</v>
       </c>
       <c r="C117">
         <v>645</v>
       </c>
       <c r="D117">
-        <v>2.2513089005235598E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.00225130890052356</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -2806,10 +2695,10 @@
         <v>585</v>
       </c>
       <c r="D118">
-        <v>2.041884816753927E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002041884816753927</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -2820,52 +2709,52 @@
         <v>522</v>
       </c>
       <c r="D119">
-        <v>1.821989528795812E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001821989528795812</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>10</v>
       </c>
       <c r="B120">
-        <v>220.89098000000001</v>
+        <v>220.89098</v>
       </c>
       <c r="C120">
         <v>511</v>
       </c>
       <c r="D120">
-        <v>1.783595113438045E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001783595113438045</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>10</v>
       </c>
       <c r="B121">
-        <v>236.09424000000001</v>
+        <v>236.09424</v>
       </c>
       <c r="C121">
         <v>450</v>
       </c>
       <c r="D121">
-        <v>1.5706806282722509E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001570680628272251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>10</v>
       </c>
       <c r="B122">
-        <v>252.21179000000001</v>
+        <v>252.21179</v>
       </c>
       <c r="C122">
         <v>438</v>
       </c>
       <c r="D122">
-        <v>1.5287958115183251E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001528795811518325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -2876,24 +2765,24 @@
         <v>436</v>
       </c>
       <c r="D123">
-        <v>1.521815008726004E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001521815008726004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>10</v>
       </c>
       <c r="B124">
-        <v>122.04362999999999</v>
+        <v>122.04363</v>
       </c>
       <c r="C124">
         <v>412</v>
       </c>
       <c r="D124">
-        <v>1.4380453752181499E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.00143804537521815</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -2904,24 +2793,24 @@
         <v>408</v>
       </c>
       <c r="D125">
-        <v>1.424083769633508E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001424083769633508</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>10</v>
       </c>
       <c r="B126">
-        <v>181.21098000000001</v>
+        <v>181.21098</v>
       </c>
       <c r="C126">
         <v>384</v>
       </c>
       <c r="D126">
-        <v>1.3403141361256539E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001340314136125654</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -2932,10 +2821,10 @@
         <v>379</v>
       </c>
       <c r="D127">
-        <v>1.3228621291448521E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001322862129144852</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -2946,66 +2835,66 @@
         <v>378</v>
       </c>
       <c r="D128">
-        <v>1.3193717277486909E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001319371727748691</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>10</v>
       </c>
       <c r="B129">
-        <v>216.76363000000001</v>
+        <v>216.76363</v>
       </c>
       <c r="C129">
         <v>362</v>
       </c>
       <c r="D129">
-        <v>1.263525305410122E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001263525305410122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>10</v>
       </c>
       <c r="B130">
-        <v>302.05342000000002</v>
+        <v>302.05342</v>
       </c>
       <c r="C130">
         <v>345</v>
       </c>
       <c r="D130">
-        <v>1.2041884816753931E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001204188481675393</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>10</v>
       </c>
       <c r="B131">
-        <v>233.89994999999999</v>
+        <v>233.89995</v>
       </c>
       <c r="C131">
         <v>314</v>
       </c>
       <c r="D131">
-        <v>1.095986038394415E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001095986038394415</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>10</v>
       </c>
       <c r="B132">
-        <v>229.58975000000001</v>
+        <v>229.58975</v>
       </c>
       <c r="C132">
         <v>308</v>
       </c>
       <c r="D132">
-        <v>1.075043630017452E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001075043630017452</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -3016,66 +2905,66 @@
         <v>306</v>
       </c>
       <c r="D133">
-        <v>1.0680628272251311E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001068062827225131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>10</v>
       </c>
       <c r="B134">
-        <v>205.45260999999999</v>
+        <v>205.45261</v>
       </c>
       <c r="C134">
         <v>302</v>
       </c>
       <c r="D134">
-        <v>1.0541012216404889E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001054101221640489</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>10</v>
       </c>
       <c r="B135">
-        <v>269.63546000000002</v>
+        <v>269.63546</v>
       </c>
       <c r="C135">
         <v>294</v>
       </c>
       <c r="D135">
-        <v>1.026178010471204E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001026178010471204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>10</v>
       </c>
       <c r="B136">
-        <v>211.12118000000001</v>
+        <v>211.12118</v>
       </c>
       <c r="C136">
         <v>259</v>
       </c>
       <c r="D136">
-        <v>9.0401396160558461E-4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0009040139616055846</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>10</v>
       </c>
       <c r="B137">
-        <v>307.51301999999998</v>
+        <v>307.51302</v>
       </c>
       <c r="C137">
         <v>258</v>
       </c>
       <c r="D137">
-        <v>9.0052356020942407E-4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0009005235602094241</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -3086,10 +2975,10 @@
         <v>228162</v>
       </c>
       <c r="D138">
-        <v>0.79637696335078534</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.7963769633507853</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -3100,10 +2989,10 @@
         <v>58338</v>
       </c>
       <c r="D139">
-        <v>0.20362303664921469</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.2036230366492147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -3117,7 +3006,7 @@
         <v>0.1051692844677138</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -3128,10 +3017,10 @@
         <v>23684</v>
       </c>
       <c r="D141">
-        <v>8.2666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.08266666666666667</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -3142,10 +3031,10 @@
         <v>13873</v>
       </c>
       <c r="D142">
-        <v>4.8422338568935429E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.04842233856893543</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -3156,10 +3045,10 @@
         <v>9499</v>
       </c>
       <c r="D143">
-        <v>3.3155322862129147E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.03315532286212915</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -3167,10 +3056,10 @@
         <v>8346</v>
       </c>
       <c r="D144">
-        <v>2.9130890052356018E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02913089005235602</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -3181,10 +3070,10 @@
         <v>7780</v>
       </c>
       <c r="D145">
-        <v>2.7155322862129141E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02715532286212914</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -3195,10 +3084,10 @@
         <v>7605</v>
       </c>
       <c r="D146">
-        <v>2.6544502617801051E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02654450261780105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -3209,10 +3098,10 @@
         <v>6880</v>
       </c>
       <c r="D147">
-        <v>2.4013961605584638E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02401396160558464</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -3223,10 +3112,10 @@
         <v>5890</v>
       </c>
       <c r="D148">
-        <v>2.055846422338569E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02055846422338569</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -3237,10 +3126,10 @@
         <v>5114</v>
       </c>
       <c r="D149">
-        <v>1.7849912739965099E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0178499127399651</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -3251,10 +3140,10 @@
         <v>4858</v>
       </c>
       <c r="D150">
-        <v>1.695636998254799E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01695636998254799</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -3265,10 +3154,10 @@
         <v>4846</v>
       </c>
       <c r="D151">
-        <v>1.6914485165794069E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01691448516579407</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -3279,10 +3168,10 @@
         <v>4825</v>
       </c>
       <c r="D152">
-        <v>1.6841186736474691E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01684118673647469</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -3293,10 +3182,10 @@
         <v>4659</v>
       </c>
       <c r="D153">
-        <v>1.6261780104712041E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01626178010471204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -3307,10 +3196,10 @@
         <v>4453</v>
       </c>
       <c r="D154">
-        <v>1.5542757417102969E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01554275741710297</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -3321,10 +3210,10 @@
         <v>4428</v>
       </c>
       <c r="D155">
-        <v>1.545549738219895E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01545549738219895</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -3335,10 +3224,10 @@
         <v>4373</v>
       </c>
       <c r="D156">
-        <v>1.5263525305410121E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01526352530541012</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -3349,10 +3238,10 @@
         <v>4257</v>
       </c>
       <c r="D157">
-        <v>1.4858638743455501E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0148586387434555</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3363,10 +3252,10 @@
         <v>4236</v>
       </c>
       <c r="D158">
-        <v>1.478534031413613E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01478534031413613</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -3377,10 +3266,10 @@
         <v>4007</v>
       </c>
       <c r="D159">
-        <v>1.3986038394415361E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01398603839441536</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -3391,10 +3280,10 @@
         <v>3839</v>
       </c>
       <c r="D160">
-        <v>1.3399650959860379E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01339965095986038</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -3405,10 +3294,10 @@
         <v>3764</v>
       </c>
       <c r="D161">
-        <v>1.313787085514834E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01313787085514834</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -3419,10 +3308,10 @@
         <v>3526</v>
       </c>
       <c r="D162">
-        <v>1.230715532286213E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01230715532286213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -3433,10 +3322,10 @@
         <v>3216</v>
       </c>
       <c r="D163">
-        <v>1.122513089005236E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01122513089005236</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -3447,10 +3336,10 @@
         <v>3090</v>
       </c>
       <c r="D164">
-        <v>1.0785340314136129E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01078534031413613</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -3461,10 +3350,10 @@
         <v>2917</v>
       </c>
       <c r="D165">
-        <v>1.0181500872600349E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01018150087260035</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -3475,10 +3364,10 @@
         <v>261064</v>
       </c>
       <c r="D166">
-        <v>0.91121815008726004</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.91121815008726</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -3489,10 +3378,10 @@
         <v>25436</v>
       </c>
       <c r="D167">
-        <v>8.8781849912739963E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.08878184991273996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -3503,10 +3392,10 @@
         <v>228108</v>
       </c>
       <c r="D168">
-        <v>0.79618848167539269</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.7961884816753927</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -3517,10 +3406,10 @@
         <v>14457</v>
       </c>
       <c r="D169">
-        <v>5.0460732984293197E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0504607329842932</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -3531,10 +3420,10 @@
         <v>12551</v>
       </c>
       <c r="D170">
-        <v>4.3808027923211167E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.04380802792321117</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -3545,10 +3434,10 @@
         <v>6526</v>
       </c>
       <c r="D171">
-        <v>2.2778359511343809E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02277835951134381</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -3559,10 +3448,10 @@
         <v>4277</v>
       </c>
       <c r="D172">
-        <v>1.4928446771378711E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01492844677137871</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -3573,10 +3462,10 @@
         <v>3933</v>
       </c>
       <c r="D173">
-        <v>1.3727748691099479E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01372774869109948</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -3587,10 +3476,10 @@
         <v>3241</v>
       </c>
       <c r="D174">
-        <v>1.131239092495637E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01131239092495637</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -3601,10 +3490,10 @@
         <v>3226</v>
       </c>
       <c r="D175">
-        <v>1.126003490401396E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01126003490401396</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -3615,10 +3504,10 @@
         <v>2546</v>
       </c>
       <c r="D176">
-        <v>8.8865619546247814E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008886561954624781</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -3629,10 +3518,10 @@
         <v>2055</v>
       </c>
       <c r="D177">
-        <v>7.1727748691099479E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.007172774869109948</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -3643,10 +3532,10 @@
         <v>1726</v>
       </c>
       <c r="D178">
-        <v>6.0244328097731241E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.006024432809773124</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -3657,10 +3546,10 @@
         <v>1514</v>
       </c>
       <c r="D179">
-        <v>5.2844677137870852E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.005284467713787085</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -3671,10 +3560,10 @@
         <v>924</v>
       </c>
       <c r="D180">
-        <v>3.2251308900523561E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003225130890052356</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -3685,10 +3574,10 @@
         <v>499</v>
       </c>
       <c r="D181">
-        <v>1.7417102966841189E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001741710296684119</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -3699,10 +3588,10 @@
         <v>310</v>
       </c>
       <c r="D182">
-        <v>1.0820244328097731E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001082024432809773</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -3713,10 +3602,10 @@
         <v>258</v>
       </c>
       <c r="D183">
-        <v>9.0052356020942407E-4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0009005235602094241</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -3727,10 +3616,10 @@
         <v>159</v>
       </c>
       <c r="D184">
-        <v>5.549738219895288E-4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0005549738219895288</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -3741,10 +3630,10 @@
         <v>63</v>
       </c>
       <c r="D185">
-        <v>2.1989528795811521E-4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0002198952879581152</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -3755,10 +3644,10 @@
         <v>52</v>
       </c>
       <c r="D186">
-        <v>1.8150087260034901E-4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.000181500872600349</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -3769,10 +3658,10 @@
         <v>52</v>
       </c>
       <c r="D187">
-        <v>1.8150087260034901E-4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.000181500872600349</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -3783,10 +3672,10 @@
         <v>18</v>
       </c>
       <c r="D188">
-        <v>6.2827225130890059E-5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.282722513089006E-05</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -3797,10 +3686,10 @@
         <v>5</v>
       </c>
       <c r="D189">
-        <v>1.7452006980802788E-5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.745200698080279E-05</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -3811,10 +3700,10 @@
         <v>9632</v>
       </c>
       <c r="D190">
-        <v>3.3619546247818502E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0336195462478185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -3822,10 +3711,10 @@
         <v>8346</v>
       </c>
       <c r="D191">
-        <v>2.9130890052356018E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02913089005235602</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -3836,10 +3725,10 @@
         <v>7230</v>
       </c>
       <c r="D192">
-        <v>2.523560209424084E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02523560209424084</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -3850,10 +3739,10 @@
         <v>6880</v>
       </c>
       <c r="D193">
-        <v>2.4013961605584638E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02401396160558464</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -3864,10 +3753,10 @@
         <v>5732</v>
       </c>
       <c r="D194">
-        <v>2.0006980802792319E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02000698080279232</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -3878,10 +3767,10 @@
         <v>4825</v>
       </c>
       <c r="D195">
-        <v>1.6841186736474691E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01684118673647469</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -3892,10 +3781,10 @@
         <v>4659</v>
       </c>
       <c r="D196">
-        <v>1.6261780104712041E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01626178010471204</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>15</v>
       </c>
@@ -3906,10 +3795,10 @@
         <v>4428</v>
       </c>
       <c r="D197">
-        <v>1.545549738219895E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01545549738219895</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -3920,10 +3809,10 @@
         <v>4370</v>
       </c>
       <c r="D198">
-        <v>1.5253054101221641E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01525305410122164</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -3934,10 +3823,10 @@
         <v>4257</v>
       </c>
       <c r="D199">
-        <v>1.4858638743455501E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0148586387434555</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -3948,10 +3837,10 @@
         <v>3769</v>
       </c>
       <c r="D200">
-        <v>1.3155322862129139E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01315532286212914</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -3962,10 +3851,10 @@
         <v>3761</v>
       </c>
       <c r="D201">
-        <v>1.312739965095986E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01312739965095986</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -3976,10 +3865,10 @@
         <v>3603</v>
       </c>
       <c r="D202">
-        <v>1.2575916230366489E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01257591623036649</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -3990,10 +3879,10 @@
         <v>3437</v>
       </c>
       <c r="D203">
-        <v>1.1996509598603841E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01199650959860384</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>15</v>
       </c>
@@ -4004,10 +3893,10 @@
         <v>3214</v>
       </c>
       <c r="D204">
-        <v>1.1218150087260041E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01121815008726004</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -4018,10 +3907,10 @@
         <v>3191</v>
       </c>
       <c r="D205">
-        <v>1.113787085514834E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01113787085514834</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -4032,10 +3921,10 @@
         <v>3102</v>
       </c>
       <c r="D206">
-        <v>1.082722513089005E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01082722513089005</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -4046,10 +3935,10 @@
         <v>3051</v>
       </c>
       <c r="D207">
-        <v>1.064921465968586E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01064921465968586</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -4060,10 +3949,10 @@
         <v>3014</v>
       </c>
       <c r="D208">
-        <v>1.0520069808027921E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01052006980802792</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -4074,10 +3963,10 @@
         <v>2891</v>
       </c>
       <c r="D209">
-        <v>1.009075043630017E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01009075043630017</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4088,10 +3977,10 @@
         <v>2887</v>
       </c>
       <c r="D210">
-        <v>1.0076788830715531E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01007678883071553</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -4102,10 +3991,10 @@
         <v>2868</v>
       </c>
       <c r="D211">
-        <v>1.001047120418848E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01001047120418848</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -4116,10 +4005,10 @@
         <v>2567</v>
       </c>
       <c r="D212">
-        <v>8.9598603839441543E-3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008959860383944154</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>15</v>
       </c>
@@ -4130,10 +4019,10 @@
         <v>2544</v>
       </c>
       <c r="D213">
-        <v>8.8795811518324608E-3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008879581151832461</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -4144,10 +4033,10 @@
         <v>2469</v>
       </c>
       <c r="D214">
-        <v>8.6178010471204183E-3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008617801047120418</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>15</v>
       </c>
@@ -4158,10 +4047,10 @@
         <v>2465</v>
       </c>
       <c r="D215">
-        <v>8.603839441535777E-3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008603839441535777</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -4172,10 +4061,10 @@
         <v>1322</v>
       </c>
       <c r="D216">
-        <v>4.6143106457242579E-3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.004614310645724258</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -4186,10 +4075,10 @@
         <v>1247</v>
       </c>
       <c r="D217">
-        <v>4.3525305410122162E-3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.004352530541012216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -4200,10 +4089,10 @@
         <v>905</v>
       </c>
       <c r="D218">
-        <v>3.1588132635253052E-3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003158813263525305</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -4214,10 +4103,10 @@
         <v>890</v>
       </c>
       <c r="D219">
-        <v>3.1064572425828969E-3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003106457242582897</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -4228,10 +4117,10 @@
         <v>799</v>
       </c>
       <c r="D220">
-        <v>2.7888307155322862E-3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002788830715532286</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>16</v>
       </c>
@@ -4242,10 +4131,10 @@
         <v>782</v>
       </c>
       <c r="D221">
-        <v>2.7294938917975572E-3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002729493891797557</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>16</v>
       </c>
@@ -4256,10 +4145,10 @@
         <v>775</v>
       </c>
       <c r="D222">
-        <v>2.7050610820244332E-3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002705061082024433</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -4270,10 +4159,10 @@
         <v>773</v>
       </c>
       <c r="D223">
-        <v>2.6980802792321121E-3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002698080279232112</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>16</v>
       </c>
@@ -4284,10 +4173,10 @@
         <v>749</v>
       </c>
       <c r="D224">
-        <v>2.6143106457242578E-3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002614310645724258</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>16</v>
       </c>
@@ -4298,10 +4187,10 @@
         <v>730</v>
       </c>
       <c r="D225">
-        <v>2.5479930191972082E-3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002547993019197208</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>16</v>
       </c>
@@ -4312,10 +4201,10 @@
         <v>714</v>
       </c>
       <c r="D226">
-        <v>2.4921465968586391E-3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002492146596858639</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>16</v>
       </c>
@@ -4326,10 +4215,10 @@
         <v>714</v>
       </c>
       <c r="D227">
-        <v>2.4921465968586391E-3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002492146596858639</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>16</v>
       </c>
@@ -4340,10 +4229,10 @@
         <v>706</v>
       </c>
       <c r="D228">
-        <v>2.4642233856893539E-3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002464223385689354</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -4354,10 +4243,10 @@
         <v>701</v>
       </c>
       <c r="D229">
-        <v>2.446771378708551E-3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002446771378708551</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>16</v>
       </c>
@@ -4368,10 +4257,10 @@
         <v>677</v>
       </c>
       <c r="D230">
-        <v>2.363001745200698E-3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002363001745200698</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>16</v>
       </c>
@@ -4382,10 +4271,10 @@
         <v>677</v>
       </c>
       <c r="D231">
-        <v>2.363001745200698E-3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002363001745200698</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>16</v>
       </c>
@@ -4396,10 +4285,10 @@
         <v>671</v>
       </c>
       <c r="D232">
-        <v>2.3420593368237352E-3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002342059336823735</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>16</v>
       </c>
@@ -4410,10 +4299,10 @@
         <v>669</v>
       </c>
       <c r="D233">
-        <v>2.3350785340314141E-3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002335078534031414</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -4424,10 +4313,10 @@
         <v>657</v>
       </c>
       <c r="D234">
-        <v>2.2931937172774872E-3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002293193717277487</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>16</v>
       </c>
@@ -4438,10 +4327,10 @@
         <v>655</v>
       </c>
       <c r="D235">
-        <v>2.2862129144851661E-3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002286212914485166</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>16</v>
       </c>
@@ -4452,10 +4341,10 @@
         <v>653</v>
       </c>
       <c r="D236">
-        <v>2.279232111692845E-3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002279232111692845</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>16</v>
       </c>
@@ -4466,10 +4355,10 @@
         <v>648</v>
       </c>
       <c r="D237">
-        <v>2.2617801047120421E-3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002261780104712042</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>16</v>
       </c>
@@ -4480,10 +4369,10 @@
         <v>633</v>
       </c>
       <c r="D238">
-        <v>2.2094240837696329E-3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002209424083769633</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>16</v>
       </c>
@@ -4494,10 +4383,10 @@
         <v>612</v>
       </c>
       <c r="D239">
-        <v>2.1361256544502622E-3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002136125654450262</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>16</v>
       </c>
@@ -4508,10 +4397,10 @@
         <v>610</v>
       </c>
       <c r="D240">
-        <v>2.1291448516579411E-3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002129144851657941</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -4519,10 +4408,10 @@
         <v>58392</v>
       </c>
       <c r="D241">
-        <v>0.20381151832460731</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.2038115183246073</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -4533,10 +4422,10 @@
         <v>1153</v>
       </c>
       <c r="D242">
-        <v>4.0244328097731241E-3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.004024432809773124</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -4547,10 +4436,10 @@
         <v>1026</v>
       </c>
       <c r="D243">
-        <v>3.581151832460733E-3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.003581151832460733</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -4561,10 +4450,10 @@
         <v>854</v>
       </c>
       <c r="D244">
-        <v>2.980802792321117E-3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002980802792321117</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -4575,10 +4464,10 @@
         <v>728</v>
       </c>
       <c r="D245">
-        <v>2.5410122164048871E-3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002541012216404887</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -4589,10 +4478,10 @@
         <v>641</v>
       </c>
       <c r="D246">
-        <v>2.2373472949389181E-3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.002237347294938918</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -4603,10 +4492,10 @@
         <v>574</v>
       </c>
       <c r="D247">
-        <v>2.0034904013961599E-3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.00200349040139616</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -4617,10 +4506,10 @@
         <v>466</v>
       </c>
       <c r="D248">
-        <v>1.62652705061082E-3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.00162652705061082</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -4631,10 +4520,10 @@
         <v>459</v>
       </c>
       <c r="D249">
-        <v>1.602094240837696E-3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001602094240837696</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -4645,10 +4534,10 @@
         <v>435</v>
       </c>
       <c r="D250">
-        <v>1.518324607329843E-3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001518324607329843</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -4659,10 +4548,10 @@
         <v>424</v>
       </c>
       <c r="D251">
-        <v>1.4799301919720771E-3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001479930191972077</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -4673,10 +4562,10 @@
         <v>409</v>
       </c>
       <c r="D252">
-        <v>1.4275741710296681E-3</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001427574171029668</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -4687,10 +4576,10 @@
         <v>393</v>
       </c>
       <c r="D253">
-        <v>1.371727748691099E-3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001371727748691099</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -4701,10 +4590,10 @@
         <v>384</v>
       </c>
       <c r="D254">
-        <v>1.3403141361256539E-3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001340314136125654</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -4715,10 +4604,10 @@
         <v>373</v>
       </c>
       <c r="D255">
-        <v>1.301919720767888E-3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001301919720767888</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -4729,10 +4618,10 @@
         <v>343</v>
       </c>
       <c r="D256">
-        <v>1.197207678883072E-3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001197207678883072</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -4743,10 +4632,10 @@
         <v>343</v>
       </c>
       <c r="D257">
-        <v>1.197207678883072E-3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001197207678883072</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -4757,10 +4646,10 @@
         <v>334</v>
       </c>
       <c r="D258">
-        <v>1.165794066317626E-3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001165794066317626</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -4771,10 +4660,10 @@
         <v>327</v>
       </c>
       <c r="D259">
-        <v>1.1413612565445029E-3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001141361256544503</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -4785,10 +4674,10 @@
         <v>312</v>
       </c>
       <c r="D260">
-        <v>1.0890052356020939E-3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001089005235602094</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -4799,10 +4688,10 @@
         <v>309</v>
       </c>
       <c r="D261">
-        <v>1.0785340314136129E-3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001078534031413613</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -4813,10 +4702,10 @@
         <v>304</v>
       </c>
       <c r="D262">
-        <v>1.06108202443281E-3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.00106108202443281</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -4827,10 +4716,10 @@
         <v>296</v>
       </c>
       <c r="D263">
-        <v>1.033158813263525E-3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.001033158813263525</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -4841,10 +4730,10 @@
         <v>279</v>
       </c>
       <c r="D264">
-        <v>9.7382198952879586E-4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0009738219895287959</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -4855,10 +4744,10 @@
         <v>259</v>
       </c>
       <c r="D265">
-        <v>9.0401396160558461E-4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0009040139616055846</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -4869,10 +4758,10 @@
         <v>249</v>
       </c>
       <c r="D266">
-        <v>8.6910994764397909E-4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0008691099476439791</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>18</v>
       </c>
@@ -4886,7 +4775,7 @@
         <v>0.906848167539267</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>18</v>
       </c>
@@ -4897,10 +4786,10 @@
         <v>26430</v>
       </c>
       <c r="D268">
-        <v>9.2251308900523563E-2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.09225130890052356</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>18</v>
       </c>
@@ -4911,10 +4800,10 @@
         <v>258</v>
       </c>
       <c r="D269">
-        <v>9.0052356020942407E-4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0009005235602094241</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -4925,10 +4814,10 @@
         <v>4</v>
       </c>
       <c r="D270">
-        <v>1.3961605584642231E-5</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.396160558464223E-05</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -4939,10 +4828,10 @@
         <v>4</v>
       </c>
       <c r="D271">
-        <v>1.3961605584642231E-5</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.396160558464223E-05</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -4953,10 +4842,10 @@
         <v>4</v>
       </c>
       <c r="D272">
-        <v>1.3961605584642231E-5</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.396160558464223E-05</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -4967,52 +4856,52 @@
         <v>3</v>
       </c>
       <c r="D273">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>19</v>
       </c>
       <c r="B274">
-        <v>1540869687000</v>
+        <v>1538858551000</v>
       </c>
       <c r="C274">
         <v>3</v>
       </c>
       <c r="D274">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>19</v>
       </c>
       <c r="B275">
-        <v>1542820461000</v>
+        <v>1539996675000</v>
       </c>
       <c r="C275">
         <v>3</v>
       </c>
       <c r="D275">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>19</v>
       </c>
       <c r="B276">
-        <v>1539996675000</v>
+        <v>1542820461000</v>
       </c>
       <c r="C276">
         <v>3</v>
       </c>
       <c r="D276">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>19</v>
       </c>
@@ -5023,38 +4912,38 @@
         <v>3</v>
       </c>
       <c r="D277">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>19</v>
       </c>
       <c r="B278">
-        <v>1541526859000</v>
+        <v>1539721234000</v>
       </c>
       <c r="C278">
         <v>3</v>
       </c>
       <c r="D278">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>19</v>
       </c>
       <c r="B279">
-        <v>1539247652000</v>
+        <v>1540456067000</v>
       </c>
       <c r="C279">
         <v>3</v>
       </c>
       <c r="D279">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>19</v>
       </c>
@@ -5065,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="D280">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>19</v>
       </c>
@@ -5079,10 +4968,10 @@
         <v>3</v>
       </c>
       <c r="D281">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>19</v>
       </c>
@@ -5093,80 +4982,80 @@
         <v>3</v>
       </c>
       <c r="D282">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>19</v>
       </c>
       <c r="B283">
-        <v>1539191076000</v>
+        <v>1540869687000</v>
       </c>
       <c r="C283">
         <v>3</v>
       </c>
       <c r="D283">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>19</v>
       </c>
       <c r="B284">
-        <v>1538858551000</v>
+        <v>1539191076000</v>
       </c>
       <c r="C284">
         <v>3</v>
       </c>
       <c r="D284">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>19</v>
       </c>
       <c r="B285">
-        <v>1538512769000</v>
+        <v>1538778922000</v>
       </c>
       <c r="C285">
         <v>3</v>
       </c>
       <c r="D285">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>19</v>
       </c>
       <c r="B286">
-        <v>1540456067000</v>
+        <v>1539247652000</v>
       </c>
       <c r="C286">
         <v>3</v>
       </c>
       <c r="D286">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>19</v>
       </c>
       <c r="B287">
-        <v>1539357724000</v>
+        <v>1539979564000</v>
       </c>
       <c r="C287">
         <v>3</v>
       </c>
       <c r="D287">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -5177,10 +5066,10 @@
         <v>3</v>
       </c>
       <c r="D288">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -5191,52 +5080,52 @@
         <v>3</v>
       </c>
       <c r="D289">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>19</v>
       </c>
       <c r="B290">
-        <v>1538778922000</v>
+        <v>1541526859000</v>
       </c>
       <c r="C290">
         <v>3</v>
       </c>
       <c r="D290">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>19</v>
       </c>
       <c r="B291">
-        <v>1539979564000</v>
+        <v>1539357724000</v>
       </c>
       <c r="C291">
         <v>3</v>
       </c>
       <c r="D291">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>19</v>
       </c>
       <c r="B292">
-        <v>1539721234000</v>
+        <v>1538512769000</v>
       </c>
       <c r="C292">
         <v>3</v>
       </c>
       <c r="D292">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>19</v>
       </c>
@@ -5247,10 +5136,10 @@
         <v>3</v>
       </c>
       <c r="D293">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>19</v>
       </c>
@@ -5261,10 +5150,10 @@
         <v>3</v>
       </c>
       <c r="D294">
-        <v>1.047120418848167E-5</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.047120418848167E-05</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -5275,10 +5164,10 @@
         <v>22751</v>
       </c>
       <c r="D295">
-        <v>7.9410122164048871E-2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.07941012216404887</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>20</v>
       </c>
@@ -5289,10 +5178,10 @@
         <v>19611</v>
       </c>
       <c r="D296">
-        <v>6.8450261780104715E-2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.06845026178010472</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>20</v>
       </c>
@@ -5303,10 +5192,10 @@
         <v>18448</v>
       </c>
       <c r="D297">
-        <v>6.4390924956369985E-2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.06439092495636999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>20</v>
       </c>
@@ -5317,10 +5206,10 @@
         <v>17348</v>
       </c>
       <c r="D298">
-        <v>6.0551483420593369E-2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.06055148342059337</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -5331,10 +5220,10 @@
         <v>16700</v>
       </c>
       <c r="D299">
-        <v>5.8289703315881333E-2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.05828970331588133</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -5345,10 +5234,10 @@
         <v>15395</v>
       </c>
       <c r="D300">
-        <v>5.3734729493891797E-2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0537347294938918</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>20</v>
       </c>
@@ -5359,10 +5248,10 @@
         <v>14598</v>
       </c>
       <c r="D301">
-        <v>5.0952879581151828E-2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.05095287958115183</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>20</v>
       </c>
@@ -5373,10 +5262,10 @@
         <v>10300</v>
       </c>
       <c r="D302">
-        <v>3.5951134380453748E-2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.03595113438045375</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>20</v>
       </c>
@@ -5387,10 +5276,10 @@
         <v>8912</v>
       </c>
       <c r="D303">
-        <v>3.1106457242582899E-2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0311064572425829</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>20</v>
       </c>
@@ -5401,10 +5290,10 @@
         <v>8624</v>
       </c>
       <c r="D304">
-        <v>3.010122164048866E-2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.03010122164048866</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>20</v>
       </c>
@@ -5412,10 +5301,10 @@
         <v>8346</v>
       </c>
       <c r="D305">
-        <v>2.9130890052356018E-2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02913089005235602</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -5426,10 +5315,10 @@
         <v>8094</v>
       </c>
       <c r="D306">
-        <v>2.8251308900523561E-2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02825130890052356</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -5440,10 +5329,10 @@
         <v>7923</v>
       </c>
       <c r="D307">
-        <v>2.7654450261780109E-2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02765445026178011</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>20</v>
       </c>
@@ -5454,10 +5343,10 @@
         <v>7906</v>
       </c>
       <c r="D308">
-        <v>2.7595113438045379E-2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02759511343804538</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>20</v>
       </c>
@@ -5468,10 +5357,10 @@
         <v>7624</v>
       </c>
       <c r="D309">
-        <v>2.66108202443281E-2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0266108202443281</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -5482,10 +5371,10 @@
         <v>6417</v>
       </c>
       <c r="D310">
-        <v>2.2397905759162309E-2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02239790575916231</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>20</v>
       </c>
@@ -5496,10 +5385,10 @@
         <v>5989</v>
       </c>
       <c r="D311">
-        <v>2.0904013961605589E-2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02090401396160559</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>20</v>
       </c>
@@ -5510,10 +5399,10 @@
         <v>5716</v>
       </c>
       <c r="D312">
-        <v>1.9951134380453751E-2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01995113438045375</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>20</v>
       </c>
@@ -5524,10 +5413,10 @@
         <v>5238</v>
       </c>
       <c r="D313">
-        <v>1.828272251308901E-2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01828272251308901</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>20</v>
       </c>
@@ -5538,10 +5427,10 @@
         <v>4917</v>
       </c>
       <c r="D314">
-        <v>1.7162303664921469E-2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01716230366492147</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>20</v>
       </c>
@@ -5552,10 +5441,10 @@
         <v>4663</v>
       </c>
       <c r="D315">
-        <v>1.6275741710296679E-2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01627574171029668</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -5566,10 +5455,10 @@
         <v>4103</v>
       </c>
       <c r="D316">
-        <v>1.4321116928446769E-2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01432111692844677</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>20</v>
       </c>
@@ -5580,10 +5469,10 @@
         <v>3655</v>
       </c>
       <c r="D317">
-        <v>1.275741710296684E-2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01275741710296684</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>20</v>
       </c>
@@ -5594,10 +5483,10 @@
         <v>3214</v>
       </c>
       <c r="D318">
-        <v>1.1218150087260041E-2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01121815008726004</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>20</v>
       </c>
@@ -5608,10 +5497,10 @@
         <v>2868</v>
       </c>
       <c r="D319">
-        <v>1.001047120418848E-2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01001047120418848</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>20</v>
       </c>
@@ -5622,10 +5511,10 @@
         <v>2842</v>
       </c>
       <c r="D320">
-        <v>9.9197207678883067E-3</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.009919720767888307</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>21</v>
       </c>
@@ -5636,10 +5525,10 @@
         <v>9632</v>
       </c>
       <c r="D321">
-        <v>3.3619546247818502E-2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0336195462478185</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>21</v>
       </c>
@@ -5647,10 +5536,10 @@
         <v>8346</v>
       </c>
       <c r="D322">
-        <v>2.9130890052356018E-2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02913089005235602</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>21</v>
       </c>
@@ -5661,10 +5550,10 @@
         <v>7230</v>
       </c>
       <c r="D323">
-        <v>2.523560209424084E-2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02523560209424084</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -5675,10 +5564,10 @@
         <v>6880</v>
       </c>
       <c r="D324">
-        <v>2.4013961605584638E-2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02401396160558464</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>21</v>
       </c>
@@ -5689,10 +5578,10 @@
         <v>5732</v>
       </c>
       <c r="D325">
-        <v>2.0006980802792319E-2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02000698080279232</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>21</v>
       </c>
@@ -5703,10 +5592,10 @@
         <v>4825</v>
       </c>
       <c r="D326">
-        <v>1.6841186736474691E-2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01684118673647469</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>21</v>
       </c>
@@ -5717,10 +5606,10 @@
         <v>4659</v>
       </c>
       <c r="D327">
-        <v>1.6261780104712041E-2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01626178010471204</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>21</v>
       </c>
@@ -5731,10 +5620,10 @@
         <v>4428</v>
       </c>
       <c r="D328">
-        <v>1.545549738219895E-2</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01545549738219895</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>21</v>
       </c>
@@ -5745,10 +5634,10 @@
         <v>4370</v>
       </c>
       <c r="D329">
-        <v>1.5253054101221641E-2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01525305410122164</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>21</v>
       </c>
@@ -5759,10 +5648,10 @@
         <v>4257</v>
       </c>
       <c r="D330">
-        <v>1.4858638743455501E-2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.0148586387434555</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>21</v>
       </c>
@@ -5773,10 +5662,10 @@
         <v>3769</v>
       </c>
       <c r="D331">
-        <v>1.3155322862129139E-2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01315532286212914</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>21</v>
       </c>
@@ -5787,10 +5676,10 @@
         <v>3761</v>
       </c>
       <c r="D332">
-        <v>1.312739965095986E-2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01312739965095986</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>21</v>
       </c>
@@ -5801,10 +5690,10 @@
         <v>3603</v>
       </c>
       <c r="D333">
-        <v>1.2575916230366489E-2</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01257591623036649</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>21</v>
       </c>
@@ -5815,10 +5704,10 @@
         <v>3437</v>
       </c>
       <c r="D334">
-        <v>1.1996509598603841E-2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01199650959860384</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>21</v>
       </c>
@@ -5829,10 +5718,10 @@
         <v>3214</v>
       </c>
       <c r="D335">
-        <v>1.1218150087260041E-2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01121815008726004</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>21</v>
       </c>
@@ -5843,10 +5732,10 @@
         <v>3191</v>
       </c>
       <c r="D336">
-        <v>1.113787085514834E-2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01113787085514834</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>21</v>
       </c>
@@ -5857,10 +5746,10 @@
         <v>3102</v>
       </c>
       <c r="D337">
-        <v>1.082722513089005E-2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01082722513089005</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>21</v>
       </c>
@@ -5871,10 +5760,10 @@
         <v>3051</v>
       </c>
       <c r="D338">
-        <v>1.064921465968586E-2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01064921465968586</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>21</v>
       </c>
@@ -5885,10 +5774,10 @@
         <v>3014</v>
       </c>
       <c r="D339">
-        <v>1.0520069808027921E-2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01052006980802792</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>21</v>
       </c>
@@ -5899,10 +5788,10 @@
         <v>2891</v>
       </c>
       <c r="D340">
-        <v>1.009075043630017E-2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01009075043630017</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>21</v>
       </c>
@@ -5913,10 +5802,10 @@
         <v>2887</v>
       </c>
       <c r="D341">
-        <v>1.0076788830715531E-2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01007678883071553</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>21</v>
       </c>
@@ -5927,10 +5816,10 @@
         <v>2868</v>
       </c>
       <c r="D342">
-        <v>1.001047120418848E-2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01001047120418848</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>21</v>
       </c>
@@ -5941,10 +5830,10 @@
         <v>2567</v>
       </c>
       <c r="D343">
-        <v>8.9598603839441543E-3</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008959860383944154</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>21</v>
       </c>
@@ -5955,10 +5844,10 @@
         <v>2544</v>
       </c>
       <c r="D344">
-        <v>8.8795811518324608E-3</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.008879581151832461</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>21</v>
       </c>
@@ -5969,13 +5858,10 @@
         <v>2469</v>
       </c>
       <c r="D345">
-        <v>8.6178010471204183E-3</v>
+        <v>0.008617801047120418</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/summaries/value_summary.xlsx
+++ b/summaries/value_summary.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ross-\Documents\GitHub\udacity-capstone\summaries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FB9427-3907-4947-928C-BED2C9269C08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="34395" yWindow="0" windowWidth="17205" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -703,8 +709,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +773,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -813,7 +827,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -845,9 +859,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,6 +911,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1054,14 +1104,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="132.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1083,10 +1136,10 @@
         <v>58392</v>
       </c>
       <c r="D2">
-        <v>0.2038115183246073</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.20381151832460731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1097,10 +1150,10 @@
         <v>1841</v>
       </c>
       <c r="D3">
-        <v>0.006425828970331588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>6.4258289703315883E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1111,10 +1164,10 @@
         <v>1813</v>
       </c>
       <c r="D4">
-        <v>0.006328097731239092</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6.3280977312390923E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1125,10 +1178,10 @@
         <v>1236</v>
       </c>
       <c r="D5">
-        <v>0.00431413612565445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>4.3141361256544501E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1139,10 +1192,10 @@
         <v>1135</v>
       </c>
       <c r="D6">
-        <v>0.003961605584642234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>3.9616055846422339E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1153,10 +1206,10 @@
         <v>1133</v>
       </c>
       <c r="D7">
-        <v>0.003954624781849912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3.9546247818499124E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1167,10 +1220,10 @@
         <v>1125</v>
       </c>
       <c r="D8">
-        <v>0.003926701570680628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>3.9267015706806281E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1181,10 +1234,10 @@
         <v>1090</v>
       </c>
       <c r="D9">
-        <v>0.003804537521815009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>3.8045375218150089E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1195,10 +1248,10 @@
         <v>1044</v>
       </c>
       <c r="D10">
-        <v>0.003643979057591623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>3.6439790575916232E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1209,10 +1262,10 @@
         <v>1007</v>
       </c>
       <c r="D11">
-        <v>0.003514834205933683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>3.514834205933683E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1223,10 +1276,10 @@
         <v>953</v>
       </c>
       <c r="D12">
-        <v>0.003326352530541012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>3.326352530541012E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1237,10 +1290,10 @@
         <v>884</v>
       </c>
       <c r="D13">
-        <v>0.003085514834205934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>3.0855148342059341E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1251,10 +1304,10 @@
         <v>876</v>
       </c>
       <c r="D14">
-        <v>0.003057591623036649</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>3.0575916230366489E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1265,10 +1318,10 @@
         <v>854</v>
       </c>
       <c r="D15">
-        <v>0.002980802792321117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>2.980802792321117E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1279,10 +1332,10 @@
         <v>840</v>
       </c>
       <c r="D16">
-        <v>0.002931937172774869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>2.931937172774869E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1293,10 +1346,10 @@
         <v>828</v>
       </c>
       <c r="D17">
-        <v>0.002890052356020942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>2.8900523560209421E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1307,10 +1360,10 @@
         <v>822</v>
       </c>
       <c r="D18">
-        <v>0.002869109947643979</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>2.8691099476439788E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1321,10 +1374,10 @@
         <v>787</v>
       </c>
       <c r="D19">
-        <v>0.00274694589877836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>2.7469458987783601E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1335,10 +1388,10 @@
         <v>781</v>
       </c>
       <c r="D20">
-        <v>0.002726003490401396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>2.726003490401396E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1349,10 +1402,10 @@
         <v>729</v>
       </c>
       <c r="D21">
-        <v>0.002544502617801047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>2.544502617801047E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1363,10 +1416,10 @@
         <v>713</v>
       </c>
       <c r="D22">
-        <v>0.002488656195462478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>2.4886561954624779E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1377,10 +1430,10 @@
         <v>713</v>
       </c>
       <c r="D23">
-        <v>0.002488656195462478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>2.4886561954624779E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1391,10 +1444,10 @@
         <v>697</v>
       </c>
       <c r="D24">
-        <v>0.002432809773123909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>2.4328097731239088E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1405,10 +1458,10 @@
         <v>693</v>
       </c>
       <c r="D25">
-        <v>0.002418848167539267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>2.4188481675392671E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1419,10 +1472,10 @@
         <v>643</v>
       </c>
       <c r="D26">
-        <v>0.002244328097731239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>2.2443280977312392E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1433,10 +1486,10 @@
         <v>618</v>
       </c>
       <c r="D27">
-        <v>0.002157068062827225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>2.157068062827225E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1447,10 +1500,10 @@
         <v>278102</v>
       </c>
       <c r="D28">
-        <v>0.9706876090750436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.97068760907504359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1461,10 +1514,10 @@
         <v>8249</v>
       </c>
       <c r="D29">
-        <v>0.02879232111692845</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>2.8792321116928449E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1475,10 +1528,10 @@
         <v>97</v>
       </c>
       <c r="D30">
-        <v>0.0003385689354275742</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>3.3856893542757419E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1489,10 +1542,10 @@
         <v>52</v>
       </c>
       <c r="D31">
-        <v>0.000181500872600349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>1.8150087260034901E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1503,10 +1556,10 @@
         <v>9632</v>
       </c>
       <c r="D32">
-        <v>0.0336195462478185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>3.3619546247818502E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1514,10 +1567,10 @@
         <v>8346</v>
       </c>
       <c r="D33">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1528,10 +1581,10 @@
         <v>7970</v>
       </c>
       <c r="D34">
-        <v>0.02781849912739965</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>2.781849912739965E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1542,10 +1595,10 @@
         <v>6880</v>
       </c>
       <c r="D35">
-        <v>0.02401396160558464</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>2.4013961605584638E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1556,10 +1609,10 @@
         <v>5732</v>
       </c>
       <c r="D36">
-        <v>0.02000698080279232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>2.0006980802792319E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1570,10 +1623,10 @@
         <v>5478</v>
       </c>
       <c r="D37">
-        <v>0.01912041884816754</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>1.912041884816754E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1584,10 +1637,10 @@
         <v>5209</v>
       </c>
       <c r="D38">
-        <v>0.01818150087260035</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>1.8181500872600349E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1598,10 +1651,10 @@
         <v>4989</v>
       </c>
       <c r="D39">
-        <v>0.01741361256544503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>1.741361256544503E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1612,10 +1665,10 @@
         <v>4825</v>
       </c>
       <c r="D40">
-        <v>0.01684118673647469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>1.6841186736474691E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1626,10 +1679,10 @@
         <v>4654</v>
       </c>
       <c r="D41">
-        <v>0.01624432809773124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>1.6244328097731239E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1640,10 +1693,10 @@
         <v>4621</v>
       </c>
       <c r="D42">
-        <v>0.01612914485165794</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>1.612914485165794E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1654,10 +1707,10 @@
         <v>4428</v>
       </c>
       <c r="D43">
-        <v>0.01545549738219895</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>1.545549738219895E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1668,10 +1721,10 @@
         <v>4268</v>
       </c>
       <c r="D44">
-        <v>0.01489703315881326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>1.489703315881326E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1682,10 +1735,10 @@
         <v>4257</v>
       </c>
       <c r="D45">
-        <v>0.0148586387434555</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>1.4858638743455501E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1696,10 +1749,10 @@
         <v>4246</v>
       </c>
       <c r="D46">
-        <v>0.01482024432809773</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>1.4820244328097729E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1710,10 +1763,10 @@
         <v>4172</v>
       </c>
       <c r="D47">
-        <v>0.01456195462478185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>1.456195462478185E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1724,10 +1777,10 @@
         <v>3769</v>
       </c>
       <c r="D48">
-        <v>0.01315532286212914</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>1.3155322862129139E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1738,10 +1791,10 @@
         <v>3657</v>
       </c>
       <c r="D49">
-        <v>0.01276439790575916</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>1.2764397905759161E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1752,10 +1805,10 @@
         <v>3603</v>
       </c>
       <c r="D50">
-        <v>0.01257591623036649</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>1.2575916230366489E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1766,10 +1819,10 @@
         <v>3486</v>
       </c>
       <c r="D51">
-        <v>0.01216753926701571</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>1.216753926701571E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1780,10 +1833,10 @@
         <v>3437</v>
       </c>
       <c r="D52">
-        <v>0.01199650959860384</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>1.1996509598603841E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1794,10 +1847,10 @@
         <v>3385</v>
       </c>
       <c r="D53">
-        <v>0.01181500872600349</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>1.181500872600349E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1808,10 +1861,10 @@
         <v>3382</v>
       </c>
       <c r="D54">
-        <v>0.01180453752181501</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>1.180453752181501E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1822,10 +1875,10 @@
         <v>3191</v>
       </c>
       <c r="D55">
-        <v>0.01113787085514834</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>1.113787085514834E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1836,10 +1889,10 @@
         <v>3102</v>
       </c>
       <c r="D56">
-        <v>0.01082722513089005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>1.082722513089005E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1850,10 +1903,10 @@
         <v>3014</v>
       </c>
       <c r="D57">
-        <v>0.01052006980802792</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>1.0520069808027921E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1864,10 +1917,10 @@
         <v>154578</v>
       </c>
       <c r="D58">
-        <v>0.5395392670157068</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.53953926701570676</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1878,10 +1931,10 @@
         <v>123576</v>
       </c>
       <c r="D59">
-        <v>0.4313298429319372</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.43132984293193721</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1889,10 +1942,10 @@
         <v>8346</v>
       </c>
       <c r="D60">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1903,10 +1956,10 @@
         <v>3278</v>
       </c>
       <c r="D61">
-        <v>0.01144153577661431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>1.144153577661431E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1917,10 +1970,10 @@
         <v>3125</v>
       </c>
       <c r="D62">
-        <v>0.01090750436300175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>1.090750436300175E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1931,10 +1984,10 @@
         <v>3067</v>
       </c>
       <c r="D63">
-        <v>0.01070506108202443</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>1.0705061082024431E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1945,10 +1998,10 @@
         <v>3013</v>
       </c>
       <c r="D64">
-        <v>0.01051657940663176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>1.0516579406631759E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1959,10 +2012,10 @@
         <v>2977</v>
       </c>
       <c r="D65">
-        <v>0.01039092495636998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>1.0390924956369981E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -1973,10 +2026,10 @@
         <v>2925</v>
       </c>
       <c r="D66">
-        <v>0.01020942408376963</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>1.020942408376963E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1987,10 +2040,10 @@
         <v>2886</v>
       </c>
       <c r="D67">
-        <v>0.01007329842931937</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>1.007329842931937E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2001,10 +2054,10 @@
         <v>2857</v>
       </c>
       <c r="D68">
-        <v>0.009972076788830716</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>9.9720767888307159E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2015,10 +2068,10 @@
         <v>2816</v>
       </c>
       <c r="D69">
-        <v>0.009828970331588133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>9.8289703315881331E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2029,10 +2082,10 @@
         <v>2771</v>
       </c>
       <c r="D70">
-        <v>0.009671902268760907</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>9.6719022687609072E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2043,10 +2096,10 @@
         <v>2717</v>
       </c>
       <c r="D71">
-        <v>0.009483420593368238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>9.4834205933682376E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2057,10 +2110,10 @@
         <v>2672</v>
       </c>
       <c r="D72">
-        <v>0.009326352530541012</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>9.3263525305410117E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2071,10 +2124,10 @@
         <v>2636</v>
       </c>
       <c r="D73">
-        <v>0.009200698080279231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>9.2006980802792314E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2085,10 +2138,10 @@
         <v>2600</v>
       </c>
       <c r="D74">
-        <v>0.009075043630017453</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>9.0750436300174528E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2099,10 +2152,10 @@
         <v>2561</v>
       </c>
       <c r="D75">
-        <v>0.008938917975567191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>8.9389179755671906E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2113,10 +2166,10 @@
         <v>2523</v>
       </c>
       <c r="D76">
-        <v>0.00880628272251309</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>8.8062827225130896E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2127,10 +2180,10 @@
         <v>2497</v>
       </c>
       <c r="D77">
-        <v>0.008715532286212914</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>8.7155322862129143E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2141,10 +2194,10 @@
         <v>2461</v>
       </c>
       <c r="D78">
-        <v>0.008589877835951134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>8.5898778359511339E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2155,10 +2208,10 @@
         <v>2417</v>
       </c>
       <c r="D79">
-        <v>0.008436300174520069</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>8.4363001745200693E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2169,10 +2222,10 @@
         <v>2381</v>
       </c>
       <c r="D80">
-        <v>0.008310645724258289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>8.3106457242582889E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2183,10 +2236,10 @@
         <v>2350</v>
       </c>
       <c r="D81">
-        <v>0.008202443280977313</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>8.2024432809773128E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2197,10 +2250,10 @@
         <v>2321</v>
       </c>
       <c r="D82">
-        <v>0.008101221640488656</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>8.1012216404886556E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2211,10 +2264,10 @@
         <v>2294</v>
       </c>
       <c r="D83">
-        <v>0.008006980802792321</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>8.0069808027923208E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2225,10 +2278,10 @@
         <v>2262</v>
       </c>
       <c r="D84">
-        <v>0.007895287958115184</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>7.8952879581151835E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2239,10 +2292,10 @@
         <v>2233</v>
       </c>
       <c r="D85">
-        <v>0.007794066317626527</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>7.7940663176265272E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2253,10 +2306,10 @@
         <v>14060</v>
       </c>
       <c r="D86">
-        <v>0.04907504363001745</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>4.9075043630017447E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -2267,10 +2320,10 @@
         <v>9284</v>
       </c>
       <c r="D87">
-        <v>0.03240488656195462</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>3.2404886561954623E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -2281,10 +2334,10 @@
         <v>8410</v>
       </c>
       <c r="D88">
-        <v>0.0293542757417103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>2.93542757417103E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -2292,10 +2345,10 @@
         <v>8346</v>
       </c>
       <c r="D89">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -2306,10 +2359,10 @@
         <v>7230</v>
       </c>
       <c r="D90">
-        <v>0.02523560209424084</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>2.523560209424084E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -2320,10 +2373,10 @@
         <v>6106</v>
       </c>
       <c r="D91">
-        <v>0.02131239092495637</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>2.1312390924956369E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -2334,10 +2387,10 @@
         <v>6105</v>
       </c>
       <c r="D92">
-        <v>0.02130890052356021</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>2.1308900523560211E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2348,10 +2401,10 @@
         <v>5732</v>
       </c>
       <c r="D93">
-        <v>0.02000698080279232</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>2.0006980802792319E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -2362,10 +2415,10 @@
         <v>5217</v>
       </c>
       <c r="D94">
-        <v>0.01820942408376963</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>1.8209424083769628E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -2376,10 +2429,10 @@
         <v>4831</v>
       </c>
       <c r="D95">
-        <v>0.01686212914485166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>1.6862129144851658E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2390,10 +2443,10 @@
         <v>4825</v>
       </c>
       <c r="D96">
-        <v>0.01684118673647469</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>1.6841186736474691E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -2404,10 +2457,10 @@
         <v>4659</v>
       </c>
       <c r="D97">
-        <v>0.01626178010471204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>1.6261780104712041E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -2418,10 +2471,10 @@
         <v>4461</v>
       </c>
       <c r="D98">
-        <v>0.01557068062827225</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>1.557068062827225E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2432,10 +2485,10 @@
         <v>4428</v>
       </c>
       <c r="D99">
-        <v>0.01545549738219895</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>1.545549738219895E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -2446,10 +2499,10 @@
         <v>4370</v>
       </c>
       <c r="D100">
-        <v>0.01525305410122164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>1.5253054101221641E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -2460,10 +2513,10 @@
         <v>4257</v>
       </c>
       <c r="D101">
-        <v>0.0148586387434555</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>1.4858638743455501E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -2474,10 +2527,10 @@
         <v>4002</v>
       </c>
       <c r="D102">
-        <v>0.01396858638743455</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>1.396858638743455E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -2488,10 +2541,10 @@
         <v>3890</v>
       </c>
       <c r="D103">
-        <v>0.01357766143106457</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>1.3577661431064571E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -2502,10 +2555,10 @@
         <v>3769</v>
       </c>
       <c r="D104">
-        <v>0.01315532286212914</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>1.3155322862129139E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -2516,10 +2569,10 @@
         <v>3761</v>
       </c>
       <c r="D105">
-        <v>0.01312739965095986</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>1.312739965095986E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -2530,10 +2583,10 @@
         <v>3483</v>
       </c>
       <c r="D106">
-        <v>0.01215706806282722</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>1.2157068062827219E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -2544,10 +2597,10 @@
         <v>3437</v>
       </c>
       <c r="D107">
-        <v>0.01199650959860384</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>1.1996509598603841E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -2558,10 +2611,10 @@
         <v>3102</v>
       </c>
       <c r="D108">
-        <v>0.01082722513089005</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>1.082722513089005E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -2572,10 +2625,10 @@
         <v>3051</v>
       </c>
       <c r="D109">
-        <v>0.01064921465968586</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>1.064921465968586E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -2586,10 +2639,10 @@
         <v>3014</v>
       </c>
       <c r="D110">
-        <v>0.01052006980802792</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>1.0520069808027921E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -2600,10 +2653,10 @@
         <v>2809</v>
       </c>
       <c r="D111">
-        <v>0.009804537521815008</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>9.8045375218150082E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -2611,10 +2664,10 @@
         <v>58392</v>
       </c>
       <c r="D112">
-        <v>0.2038115183246073</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>0.20381151832460731</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -2625,66 +2678,66 @@
         <v>1205</v>
       </c>
       <c r="D113">
-        <v>0.004205933682373473</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>4.2059336823734731E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114">
-        <v>348.57751</v>
+        <v>348.57751000000002</v>
       </c>
       <c r="C114">
         <v>1037</v>
       </c>
       <c r="D114">
-        <v>0.003619546247818499</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>3.6195462478184992E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>10</v>
       </c>
       <c r="B115">
-        <v>201.79546</v>
+        <v>201.79545999999999</v>
       </c>
       <c r="C115">
         <v>908</v>
       </c>
       <c r="D115">
-        <v>0.003169284467713787</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>3.169284467713787E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>10</v>
       </c>
       <c r="B116">
-        <v>655.77751</v>
+        <v>655.77751000000001</v>
       </c>
       <c r="C116">
         <v>730</v>
       </c>
       <c r="D116">
-        <v>0.002547993019197208</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>2.5479930191972082E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>10</v>
       </c>
       <c r="B117">
-        <v>277.15873</v>
+        <v>277.15872999999999</v>
       </c>
       <c r="C117">
         <v>645</v>
       </c>
       <c r="D117">
-        <v>0.00225130890052356</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>2.2513089005235598E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -2695,10 +2748,10 @@
         <v>585</v>
       </c>
       <c r="D118">
-        <v>0.002041884816753927</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>2.041884816753927E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -2709,52 +2762,52 @@
         <v>522</v>
       </c>
       <c r="D119">
-        <v>0.001821989528795812</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>1.821989528795812E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>10</v>
       </c>
       <c r="B120">
-        <v>220.89098</v>
+        <v>220.89098000000001</v>
       </c>
       <c r="C120">
         <v>511</v>
       </c>
       <c r="D120">
-        <v>0.001783595113438045</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>1.783595113438045E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
       <c r="B121">
-        <v>236.09424</v>
+        <v>236.09424000000001</v>
       </c>
       <c r="C121">
         <v>450</v>
       </c>
       <c r="D121">
-        <v>0.001570680628272251</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>1.5706806282722509E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>10</v>
       </c>
       <c r="B122">
-        <v>252.21179</v>
+        <v>252.21179000000001</v>
       </c>
       <c r="C122">
         <v>438</v>
       </c>
       <c r="D122">
-        <v>0.001528795811518325</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>1.5287958115183251E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -2765,24 +2818,24 @@
         <v>436</v>
       </c>
       <c r="D123">
-        <v>0.001521815008726004</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>1.521815008726004E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>10</v>
       </c>
       <c r="B124">
-        <v>122.04363</v>
+        <v>122.04362999999999</v>
       </c>
       <c r="C124">
         <v>412</v>
       </c>
       <c r="D124">
-        <v>0.00143804537521815</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>1.4380453752181499E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -2793,24 +2846,24 @@
         <v>408</v>
       </c>
       <c r="D125">
-        <v>0.001424083769633508</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>1.424083769633508E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>10</v>
       </c>
       <c r="B126">
-        <v>181.21098</v>
+        <v>181.21098000000001</v>
       </c>
       <c r="C126">
         <v>384</v>
       </c>
       <c r="D126">
-        <v>0.001340314136125654</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>1.3403141361256539E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -2821,10 +2874,10 @@
         <v>379</v>
       </c>
       <c r="D127">
-        <v>0.001322862129144852</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>1.3228621291448521E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -2835,66 +2888,66 @@
         <v>378</v>
       </c>
       <c r="D128">
-        <v>0.001319371727748691</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>1.3193717277486909E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
       <c r="B129">
-        <v>216.76363</v>
+        <v>216.76363000000001</v>
       </c>
       <c r="C129">
         <v>362</v>
       </c>
       <c r="D129">
-        <v>0.001263525305410122</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>1.263525305410122E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>10</v>
       </c>
       <c r="B130">
-        <v>302.05342</v>
+        <v>302.05342000000002</v>
       </c>
       <c r="C130">
         <v>345</v>
       </c>
       <c r="D130">
-        <v>0.001204188481675393</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>1.2041884816753931E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>10</v>
       </c>
       <c r="B131">
-        <v>233.89995</v>
+        <v>233.89994999999999</v>
       </c>
       <c r="C131">
         <v>314</v>
       </c>
       <c r="D131">
-        <v>0.001095986038394415</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>1.095986038394415E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>10</v>
       </c>
       <c r="B132">
-        <v>229.58975</v>
+        <v>229.58975000000001</v>
       </c>
       <c r="C132">
         <v>308</v>
       </c>
       <c r="D132">
-        <v>0.001075043630017452</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>1.075043630017452E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -2905,66 +2958,66 @@
         <v>306</v>
       </c>
       <c r="D133">
-        <v>0.001068062827225131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>1.0680628272251311E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>10</v>
       </c>
       <c r="B134">
-        <v>205.45261</v>
+        <v>205.45260999999999</v>
       </c>
       <c r="C134">
         <v>302</v>
       </c>
       <c r="D134">
-        <v>0.001054101221640489</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>1.0541012216404889E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>10</v>
       </c>
       <c r="B135">
-        <v>269.63546</v>
+        <v>269.63546000000002</v>
       </c>
       <c r="C135">
         <v>294</v>
       </c>
       <c r="D135">
-        <v>0.001026178010471204</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>1.026178010471204E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>10</v>
       </c>
       <c r="B136">
-        <v>211.12118</v>
+        <v>211.12118000000001</v>
       </c>
       <c r="C136">
         <v>259</v>
       </c>
       <c r="D136">
-        <v>0.0009040139616055846</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>9.0401396160558461E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>10</v>
       </c>
       <c r="B137">
-        <v>307.51302</v>
+        <v>307.51301999999998</v>
       </c>
       <c r="C137">
         <v>258</v>
       </c>
       <c r="D137">
-        <v>0.0009005235602094241</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>9.0052356020942407E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -2975,10 +3028,10 @@
         <v>228162</v>
       </c>
       <c r="D138">
-        <v>0.7963769633507853</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>0.79637696335078534</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -2989,10 +3042,10 @@
         <v>58338</v>
       </c>
       <c r="D139">
-        <v>0.2036230366492147</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>0.20362303664921469</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -3006,7 +3059,7 @@
         <v>0.1051692844677138</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -3017,10 +3070,10 @@
         <v>23684</v>
       </c>
       <c r="D141">
-        <v>0.08266666666666667</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>8.2666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -3031,10 +3084,10 @@
         <v>13873</v>
       </c>
       <c r="D142">
-        <v>0.04842233856893543</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>4.8422338568935429E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -3045,10 +3098,10 @@
         <v>9499</v>
       </c>
       <c r="D143">
-        <v>0.03315532286212915</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>3.3155322862129147E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -3056,10 +3109,10 @@
         <v>8346</v>
       </c>
       <c r="D144">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -3070,10 +3123,10 @@
         <v>7780</v>
       </c>
       <c r="D145">
-        <v>0.02715532286212914</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>2.7155322862129141E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -3084,10 +3137,10 @@
         <v>7605</v>
       </c>
       <c r="D146">
-        <v>0.02654450261780105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>2.6544502617801051E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -3098,10 +3151,10 @@
         <v>6880</v>
       </c>
       <c r="D147">
-        <v>0.02401396160558464</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>2.4013961605584638E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -3112,10 +3165,10 @@
         <v>5890</v>
       </c>
       <c r="D148">
-        <v>0.02055846422338569</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>2.055846422338569E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -3126,10 +3179,10 @@
         <v>5114</v>
       </c>
       <c r="D149">
-        <v>0.0178499127399651</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>1.7849912739965099E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -3140,10 +3193,10 @@
         <v>4858</v>
       </c>
       <c r="D150">
-        <v>0.01695636998254799</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>1.695636998254799E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -3154,10 +3207,10 @@
         <v>4846</v>
       </c>
       <c r="D151">
-        <v>0.01691448516579407</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>1.6914485165794069E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -3168,10 +3221,10 @@
         <v>4825</v>
       </c>
       <c r="D152">
-        <v>0.01684118673647469</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>1.6841186736474691E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -3182,10 +3235,10 @@
         <v>4659</v>
       </c>
       <c r="D153">
-        <v>0.01626178010471204</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>1.6261780104712041E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -3196,10 +3249,10 @@
         <v>4453</v>
       </c>
       <c r="D154">
-        <v>0.01554275741710297</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>1.5542757417102969E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -3210,10 +3263,10 @@
         <v>4428</v>
       </c>
       <c r="D155">
-        <v>0.01545549738219895</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>1.545549738219895E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -3224,10 +3277,10 @@
         <v>4373</v>
       </c>
       <c r="D156">
-        <v>0.01526352530541012</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>1.5263525305410121E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -3238,10 +3291,10 @@
         <v>4257</v>
       </c>
       <c r="D157">
-        <v>0.0148586387434555</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>1.4858638743455501E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3252,10 +3305,10 @@
         <v>4236</v>
       </c>
       <c r="D158">
-        <v>0.01478534031413613</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>1.478534031413613E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -3266,10 +3319,10 @@
         <v>4007</v>
       </c>
       <c r="D159">
-        <v>0.01398603839441536</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>1.3986038394415361E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -3280,10 +3333,10 @@
         <v>3839</v>
       </c>
       <c r="D160">
-        <v>0.01339965095986038</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>1.3399650959860379E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -3294,10 +3347,10 @@
         <v>3764</v>
       </c>
       <c r="D161">
-        <v>0.01313787085514834</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>1.313787085514834E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -3308,10 +3361,10 @@
         <v>3526</v>
       </c>
       <c r="D162">
-        <v>0.01230715532286213</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>1.230715532286213E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -3322,10 +3375,10 @@
         <v>3216</v>
       </c>
       <c r="D163">
-        <v>0.01122513089005236</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>1.122513089005236E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -3336,10 +3389,10 @@
         <v>3090</v>
       </c>
       <c r="D164">
-        <v>0.01078534031413613</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>1.0785340314136129E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -3350,10 +3403,10 @@
         <v>2917</v>
       </c>
       <c r="D165">
-        <v>0.01018150087260035</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>1.0181500872600349E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -3364,10 +3417,10 @@
         <v>261064</v>
       </c>
       <c r="D166">
-        <v>0.91121815008726</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>0.91121815008726004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -3378,10 +3431,10 @@
         <v>25436</v>
       </c>
       <c r="D167">
-        <v>0.08878184991273996</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>8.8781849912739963E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -3392,10 +3445,10 @@
         <v>228108</v>
       </c>
       <c r="D168">
-        <v>0.7961884816753927</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>0.79618848167539269</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -3406,10 +3459,10 @@
         <v>14457</v>
       </c>
       <c r="D169">
-        <v>0.0504607329842932</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>5.0460732984293197E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -3420,10 +3473,10 @@
         <v>12551</v>
       </c>
       <c r="D170">
-        <v>0.04380802792321117</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>4.3808027923211167E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -3434,10 +3487,10 @@
         <v>6526</v>
       </c>
       <c r="D171">
-        <v>0.02277835951134381</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>2.2778359511343809E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -3448,10 +3501,10 @@
         <v>4277</v>
       </c>
       <c r="D172">
-        <v>0.01492844677137871</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>1.4928446771378711E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -3462,10 +3515,10 @@
         <v>3933</v>
       </c>
       <c r="D173">
-        <v>0.01372774869109948</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>1.3727748691099479E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -3476,10 +3529,10 @@
         <v>3241</v>
       </c>
       <c r="D174">
-        <v>0.01131239092495637</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>1.131239092495637E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -3490,10 +3543,10 @@
         <v>3226</v>
       </c>
       <c r="D175">
-        <v>0.01126003490401396</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>1.126003490401396E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -3504,10 +3557,10 @@
         <v>2546</v>
       </c>
       <c r="D176">
-        <v>0.008886561954624781</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>8.8865619546247814E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -3518,10 +3571,10 @@
         <v>2055</v>
       </c>
       <c r="D177">
-        <v>0.007172774869109948</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>7.1727748691099479E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -3532,10 +3585,10 @@
         <v>1726</v>
       </c>
       <c r="D178">
-        <v>0.006024432809773124</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>6.0244328097731241E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -3546,10 +3599,10 @@
         <v>1514</v>
       </c>
       <c r="D179">
-        <v>0.005284467713787085</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>5.2844677137870852E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -3560,10 +3613,10 @@
         <v>924</v>
       </c>
       <c r="D180">
-        <v>0.003225130890052356</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>3.2251308900523561E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -3574,10 +3627,10 @@
         <v>499</v>
       </c>
       <c r="D181">
-        <v>0.001741710296684119</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>1.7417102966841189E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -3588,10 +3641,10 @@
         <v>310</v>
       </c>
       <c r="D182">
-        <v>0.001082024432809773</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>1.0820244328097731E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -3602,10 +3655,10 @@
         <v>258</v>
       </c>
       <c r="D183">
-        <v>0.0009005235602094241</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>9.0052356020942407E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -3616,10 +3669,10 @@
         <v>159</v>
       </c>
       <c r="D184">
-        <v>0.0005549738219895288</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>5.549738219895288E-4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -3630,10 +3683,10 @@
         <v>63</v>
       </c>
       <c r="D185">
-        <v>0.0002198952879581152</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>2.1989528795811521E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -3644,10 +3697,10 @@
         <v>52</v>
       </c>
       <c r="D186">
-        <v>0.000181500872600349</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>1.8150087260034901E-4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -3658,10 +3711,10 @@
         <v>52</v>
       </c>
       <c r="D187">
-        <v>0.000181500872600349</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>1.8150087260034901E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -3672,10 +3725,10 @@
         <v>18</v>
       </c>
       <c r="D188">
-        <v>6.282722513089006E-05</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>6.2827225130890059E-5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -3686,10 +3739,10 @@
         <v>5</v>
       </c>
       <c r="D189">
-        <v>1.745200698080279E-05</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>1.7452006980802788E-5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -3700,10 +3753,10 @@
         <v>9632</v>
       </c>
       <c r="D190">
-        <v>0.0336195462478185</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>3.3619546247818502E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -3711,10 +3764,10 @@
         <v>8346</v>
       </c>
       <c r="D191">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -3725,10 +3778,10 @@
         <v>7230</v>
       </c>
       <c r="D192">
-        <v>0.02523560209424084</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>2.523560209424084E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -3739,10 +3792,10 @@
         <v>6880</v>
       </c>
       <c r="D193">
-        <v>0.02401396160558464</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>2.4013961605584638E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -3753,10 +3806,10 @@
         <v>5732</v>
       </c>
       <c r="D194">
-        <v>0.02000698080279232</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>2.0006980802792319E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -3767,10 +3820,10 @@
         <v>4825</v>
       </c>
       <c r="D195">
-        <v>0.01684118673647469</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>1.6841186736474691E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -3781,10 +3834,10 @@
         <v>4659</v>
       </c>
       <c r="D196">
-        <v>0.01626178010471204</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>1.6261780104712041E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>15</v>
       </c>
@@ -3795,10 +3848,10 @@
         <v>4428</v>
       </c>
       <c r="D197">
-        <v>0.01545549738219895</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>1.545549738219895E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -3809,10 +3862,10 @@
         <v>4370</v>
       </c>
       <c r="D198">
-        <v>0.01525305410122164</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>1.5253054101221641E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -3823,10 +3876,10 @@
         <v>4257</v>
       </c>
       <c r="D199">
-        <v>0.0148586387434555</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>1.4858638743455501E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -3837,10 +3890,10 @@
         <v>3769</v>
       </c>
       <c r="D200">
-        <v>0.01315532286212914</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>1.3155322862129139E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -3851,10 +3904,10 @@
         <v>3761</v>
       </c>
       <c r="D201">
-        <v>0.01312739965095986</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>1.312739965095986E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -3865,10 +3918,10 @@
         <v>3603</v>
       </c>
       <c r="D202">
-        <v>0.01257591623036649</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>1.2575916230366489E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -3879,10 +3932,10 @@
         <v>3437</v>
       </c>
       <c r="D203">
-        <v>0.01199650959860384</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>1.1996509598603841E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>15</v>
       </c>
@@ -3893,10 +3946,10 @@
         <v>3214</v>
       </c>
       <c r="D204">
-        <v>0.01121815008726004</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>1.1218150087260041E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -3907,10 +3960,10 @@
         <v>3191</v>
       </c>
       <c r="D205">
-        <v>0.01113787085514834</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>1.113787085514834E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -3921,10 +3974,10 @@
         <v>3102</v>
       </c>
       <c r="D206">
-        <v>0.01082722513089005</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>1.082722513089005E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -3935,10 +3988,10 @@
         <v>3051</v>
       </c>
       <c r="D207">
-        <v>0.01064921465968586</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>1.064921465968586E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -3949,10 +4002,10 @@
         <v>3014</v>
       </c>
       <c r="D208">
-        <v>0.01052006980802792</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>1.0520069808027921E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -3963,10 +4016,10 @@
         <v>2891</v>
       </c>
       <c r="D209">
-        <v>0.01009075043630017</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>1.009075043630017E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -3977,10 +4030,10 @@
         <v>2887</v>
       </c>
       <c r="D210">
-        <v>0.01007678883071553</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>1.0076788830715531E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -3991,10 +4044,10 @@
         <v>2868</v>
       </c>
       <c r="D211">
-        <v>0.01001047120418848</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>1.001047120418848E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -4005,10 +4058,10 @@
         <v>2567</v>
       </c>
       <c r="D212">
-        <v>0.008959860383944154</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>8.9598603839441543E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>15</v>
       </c>
@@ -4019,10 +4072,10 @@
         <v>2544</v>
       </c>
       <c r="D213">
-        <v>0.008879581151832461</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>8.8795811518324608E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -4033,10 +4086,10 @@
         <v>2469</v>
       </c>
       <c r="D214">
-        <v>0.008617801047120418</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>8.6178010471204183E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>15</v>
       </c>
@@ -4047,10 +4100,10 @@
         <v>2465</v>
       </c>
       <c r="D215">
-        <v>0.008603839441535777</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>8.603839441535777E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -4061,10 +4114,10 @@
         <v>1322</v>
       </c>
       <c r="D216">
-        <v>0.004614310645724258</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>4.6143106457242579E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -4075,10 +4128,10 @@
         <v>1247</v>
       </c>
       <c r="D217">
-        <v>0.004352530541012216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>4.3525305410122162E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -4089,10 +4142,10 @@
         <v>905</v>
       </c>
       <c r="D218">
-        <v>0.003158813263525305</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>3.1588132635253052E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -4103,10 +4156,10 @@
         <v>890</v>
       </c>
       <c r="D219">
-        <v>0.003106457242582897</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>3.1064572425828969E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -4117,10 +4170,10 @@
         <v>799</v>
       </c>
       <c r="D220">
-        <v>0.002788830715532286</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>2.7888307155322862E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>16</v>
       </c>
@@ -4131,10 +4184,10 @@
         <v>782</v>
       </c>
       <c r="D221">
-        <v>0.002729493891797557</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>2.7294938917975572E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>16</v>
       </c>
@@ -4145,10 +4198,10 @@
         <v>775</v>
       </c>
       <c r="D222">
-        <v>0.002705061082024433</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>2.7050610820244332E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -4159,10 +4212,10 @@
         <v>773</v>
       </c>
       <c r="D223">
-        <v>0.002698080279232112</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>2.6980802792321121E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>16</v>
       </c>
@@ -4173,10 +4226,10 @@
         <v>749</v>
       </c>
       <c r="D224">
-        <v>0.002614310645724258</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>2.6143106457242578E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>16</v>
       </c>
@@ -4187,10 +4240,10 @@
         <v>730</v>
       </c>
       <c r="D225">
-        <v>0.002547993019197208</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>2.5479930191972082E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>16</v>
       </c>
@@ -4201,10 +4254,10 @@
         <v>714</v>
       </c>
       <c r="D226">
-        <v>0.002492146596858639</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>2.4921465968586391E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>16</v>
       </c>
@@ -4215,10 +4268,10 @@
         <v>714</v>
       </c>
       <c r="D227">
-        <v>0.002492146596858639</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>2.4921465968586391E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>16</v>
       </c>
@@ -4229,10 +4282,10 @@
         <v>706</v>
       </c>
       <c r="D228">
-        <v>0.002464223385689354</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>2.4642233856893539E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -4243,10 +4296,10 @@
         <v>701</v>
       </c>
       <c r="D229">
-        <v>0.002446771378708551</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>2.446771378708551E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>16</v>
       </c>
@@ -4257,10 +4310,10 @@
         <v>677</v>
       </c>
       <c r="D230">
-        <v>0.002363001745200698</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>2.363001745200698E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>16</v>
       </c>
@@ -4271,10 +4324,10 @@
         <v>677</v>
       </c>
       <c r="D231">
-        <v>0.002363001745200698</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>2.363001745200698E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>16</v>
       </c>
@@ -4285,10 +4338,10 @@
         <v>671</v>
       </c>
       <c r="D232">
-        <v>0.002342059336823735</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>2.3420593368237352E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>16</v>
       </c>
@@ -4299,10 +4352,10 @@
         <v>669</v>
       </c>
       <c r="D233">
-        <v>0.002335078534031414</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>2.3350785340314141E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -4313,10 +4366,10 @@
         <v>657</v>
       </c>
       <c r="D234">
-        <v>0.002293193717277487</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>2.2931937172774872E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>16</v>
       </c>
@@ -4327,10 +4380,10 @@
         <v>655</v>
       </c>
       <c r="D235">
-        <v>0.002286212914485166</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>2.2862129144851661E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>16</v>
       </c>
@@ -4341,10 +4394,10 @@
         <v>653</v>
       </c>
       <c r="D236">
-        <v>0.002279232111692845</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>2.279232111692845E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>16</v>
       </c>
@@ -4355,10 +4408,10 @@
         <v>648</v>
       </c>
       <c r="D237">
-        <v>0.002261780104712042</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>2.2617801047120421E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>16</v>
       </c>
@@ -4369,10 +4422,10 @@
         <v>633</v>
       </c>
       <c r="D238">
-        <v>0.002209424083769633</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>2.2094240837696329E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>16</v>
       </c>
@@ -4383,10 +4436,10 @@
         <v>612</v>
       </c>
       <c r="D239">
-        <v>0.002136125654450262</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>2.1361256544502622E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>16</v>
       </c>
@@ -4397,10 +4450,10 @@
         <v>610</v>
       </c>
       <c r="D240">
-        <v>0.002129144851657941</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>2.1291448516579411E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -4408,10 +4461,10 @@
         <v>58392</v>
       </c>
       <c r="D241">
-        <v>0.2038115183246073</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>0.20381151832460731</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -4422,10 +4475,10 @@
         <v>1153</v>
       </c>
       <c r="D242">
-        <v>0.004024432809773124</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>4.0244328097731241E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -4436,10 +4489,10 @@
         <v>1026</v>
       </c>
       <c r="D243">
-        <v>0.003581151832460733</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>3.581151832460733E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -4450,10 +4503,10 @@
         <v>854</v>
       </c>
       <c r="D244">
-        <v>0.002980802792321117</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>2.980802792321117E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -4464,10 +4517,10 @@
         <v>728</v>
       </c>
       <c r="D245">
-        <v>0.002541012216404887</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>2.5410122164048871E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -4478,10 +4531,10 @@
         <v>641</v>
       </c>
       <c r="D246">
-        <v>0.002237347294938918</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>2.2373472949389181E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -4492,10 +4545,10 @@
         <v>574</v>
       </c>
       <c r="D247">
-        <v>0.00200349040139616</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>2.0034904013961599E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -4506,10 +4559,10 @@
         <v>466</v>
       </c>
       <c r="D248">
-        <v>0.00162652705061082</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>1.62652705061082E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -4520,10 +4573,10 @@
         <v>459</v>
       </c>
       <c r="D249">
-        <v>0.001602094240837696</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>1.602094240837696E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -4534,10 +4587,10 @@
         <v>435</v>
       </c>
       <c r="D250">
-        <v>0.001518324607329843</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>1.518324607329843E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -4548,10 +4601,10 @@
         <v>424</v>
       </c>
       <c r="D251">
-        <v>0.001479930191972077</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>1.4799301919720771E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -4562,10 +4615,10 @@
         <v>409</v>
       </c>
       <c r="D252">
-        <v>0.001427574171029668</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>1.4275741710296681E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -4576,10 +4629,10 @@
         <v>393</v>
       </c>
       <c r="D253">
-        <v>0.001371727748691099</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>1.371727748691099E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -4590,10 +4643,10 @@
         <v>384</v>
       </c>
       <c r="D254">
-        <v>0.001340314136125654</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>1.3403141361256539E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -4604,10 +4657,10 @@
         <v>373</v>
       </c>
       <c r="D255">
-        <v>0.001301919720767888</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>1.301919720767888E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -4618,10 +4671,10 @@
         <v>343</v>
       </c>
       <c r="D256">
-        <v>0.001197207678883072</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>1.197207678883072E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -4632,10 +4685,10 @@
         <v>343</v>
       </c>
       <c r="D257">
-        <v>0.001197207678883072</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>1.197207678883072E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -4646,10 +4699,10 @@
         <v>334</v>
       </c>
       <c r="D258">
-        <v>0.001165794066317626</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>1.165794066317626E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -4660,10 +4713,10 @@
         <v>327</v>
       </c>
       <c r="D259">
-        <v>0.001141361256544503</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>1.1413612565445029E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -4674,10 +4727,10 @@
         <v>312</v>
       </c>
       <c r="D260">
-        <v>0.001089005235602094</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>1.0890052356020939E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -4688,10 +4741,10 @@
         <v>309</v>
       </c>
       <c r="D261">
-        <v>0.001078534031413613</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>1.0785340314136129E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -4702,10 +4755,10 @@
         <v>304</v>
       </c>
       <c r="D262">
-        <v>0.00106108202443281</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>1.06108202443281E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -4716,10 +4769,10 @@
         <v>296</v>
       </c>
       <c r="D263">
-        <v>0.001033158813263525</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>1.033158813263525E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -4730,10 +4783,10 @@
         <v>279</v>
       </c>
       <c r="D264">
-        <v>0.0009738219895287959</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>9.7382198952879586E-4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -4744,10 +4797,10 @@
         <v>259</v>
       </c>
       <c r="D265">
-        <v>0.0009040139616055846</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>9.0401396160558461E-4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -4758,10 +4811,10 @@
         <v>249</v>
       </c>
       <c r="D266">
-        <v>0.0008691099476439791</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
+        <v>8.6910994764397909E-4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>18</v>
       </c>
@@ -4775,7 +4828,7 @@
         <v>0.906848167539267</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>18</v>
       </c>
@@ -4786,10 +4839,10 @@
         <v>26430</v>
       </c>
       <c r="D268">
-        <v>0.09225130890052356</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>9.2251308900523563E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>18</v>
       </c>
@@ -4800,10 +4853,10 @@
         <v>258</v>
       </c>
       <c r="D269">
-        <v>0.0009005235602094241</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+        <v>9.0052356020942407E-4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -4814,10 +4867,10 @@
         <v>4</v>
       </c>
       <c r="D270">
-        <v>1.396160558464223E-05</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>1.3961605584642231E-5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -4828,10 +4881,10 @@
         <v>4</v>
       </c>
       <c r="D271">
-        <v>1.396160558464223E-05</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
+        <v>1.3961605584642231E-5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -4842,10 +4895,10 @@
         <v>4</v>
       </c>
       <c r="D272">
-        <v>1.396160558464223E-05</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+        <v>1.3961605584642231E-5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -4856,10 +4909,10 @@
         <v>3</v>
       </c>
       <c r="D273">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -4870,10 +4923,10 @@
         <v>3</v>
       </c>
       <c r="D274">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -4884,10 +4937,10 @@
         <v>3</v>
       </c>
       <c r="D275">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>19</v>
       </c>
@@ -4898,10 +4951,10 @@
         <v>3</v>
       </c>
       <c r="D276">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>19</v>
       </c>
@@ -4912,10 +4965,10 @@
         <v>3</v>
       </c>
       <c r="D277">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>19</v>
       </c>
@@ -4926,10 +4979,10 @@
         <v>3</v>
       </c>
       <c r="D278">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>19</v>
       </c>
@@ -4940,10 +4993,10 @@
         <v>3</v>
       </c>
       <c r="D279">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>19</v>
       </c>
@@ -4954,10 +5007,10 @@
         <v>3</v>
       </c>
       <c r="D280">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>19</v>
       </c>
@@ -4968,10 +5021,10 @@
         <v>3</v>
       </c>
       <c r="D281">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>19</v>
       </c>
@@ -4982,10 +5035,10 @@
         <v>3</v>
       </c>
       <c r="D282">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>19</v>
       </c>
@@ -4996,10 +5049,10 @@
         <v>3</v>
       </c>
       <c r="D283">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>19</v>
       </c>
@@ -5010,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="D284">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>19</v>
       </c>
@@ -5024,10 +5077,10 @@
         <v>3</v>
       </c>
       <c r="D285">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -5038,10 +5091,10 @@
         <v>3</v>
       </c>
       <c r="D286">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -5052,10 +5105,10 @@
         <v>3</v>
       </c>
       <c r="D287">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -5066,10 +5119,10 @@
         <v>3</v>
       </c>
       <c r="D288">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -5080,10 +5133,10 @@
         <v>3</v>
       </c>
       <c r="D289">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>19</v>
       </c>
@@ -5094,10 +5147,10 @@
         <v>3</v>
       </c>
       <c r="D290">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>19</v>
       </c>
@@ -5108,10 +5161,10 @@
         <v>3</v>
       </c>
       <c r="D291">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>19</v>
       </c>
@@ -5122,10 +5175,10 @@
         <v>3</v>
       </c>
       <c r="D292">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>19</v>
       </c>
@@ -5136,10 +5189,10 @@
         <v>3</v>
       </c>
       <c r="D293">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>19</v>
       </c>
@@ -5150,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="D294">
-        <v>1.047120418848167E-05</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
+        <v>1.047120418848167E-5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -5164,10 +5217,10 @@
         <v>22751</v>
       </c>
       <c r="D295">
-        <v>0.07941012216404887</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
+        <v>7.9410122164048871E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>20</v>
       </c>
@@ -5178,10 +5231,10 @@
         <v>19611</v>
       </c>
       <c r="D296">
-        <v>0.06845026178010472</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
+        <v>6.8450261780104715E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>20</v>
       </c>
@@ -5192,10 +5245,10 @@
         <v>18448</v>
       </c>
       <c r="D297">
-        <v>0.06439092495636999</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
+        <v>6.4390924956369985E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>20</v>
       </c>
@@ -5206,10 +5259,10 @@
         <v>17348</v>
       </c>
       <c r="D298">
-        <v>0.06055148342059337</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
+        <v>6.0551483420593369E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -5220,10 +5273,10 @@
         <v>16700</v>
       </c>
       <c r="D299">
-        <v>0.05828970331588133</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
+        <v>5.8289703315881333E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -5234,10 +5287,10 @@
         <v>15395</v>
       </c>
       <c r="D300">
-        <v>0.0537347294938918</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
+        <v>5.3734729493891797E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>20</v>
       </c>
@@ -5248,10 +5301,10 @@
         <v>14598</v>
       </c>
       <c r="D301">
-        <v>0.05095287958115183</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
+        <v>5.0952879581151828E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>20</v>
       </c>
@@ -5262,10 +5315,10 @@
         <v>10300</v>
       </c>
       <c r="D302">
-        <v>0.03595113438045375</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
+        <v>3.5951134380453748E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>20</v>
       </c>
@@ -5276,10 +5329,10 @@
         <v>8912</v>
       </c>
       <c r="D303">
-        <v>0.0311064572425829</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
+        <v>3.1106457242582899E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>20</v>
       </c>
@@ -5290,10 +5343,10 @@
         <v>8624</v>
       </c>
       <c r="D304">
-        <v>0.03010122164048866</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
+        <v>3.010122164048866E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>20</v>
       </c>
@@ -5301,10 +5354,10 @@
         <v>8346</v>
       </c>
       <c r="D305">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -5315,10 +5368,10 @@
         <v>8094</v>
       </c>
       <c r="D306">
-        <v>0.02825130890052356</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
+        <v>2.8251308900523561E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -5329,10 +5382,10 @@
         <v>7923</v>
       </c>
       <c r="D307">
-        <v>0.02765445026178011</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
+        <v>2.7654450261780109E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>20</v>
       </c>
@@ -5343,10 +5396,10 @@
         <v>7906</v>
       </c>
       <c r="D308">
-        <v>0.02759511343804538</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
+        <v>2.7595113438045379E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>20</v>
       </c>
@@ -5357,10 +5410,10 @@
         <v>7624</v>
       </c>
       <c r="D309">
-        <v>0.0266108202443281</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
+        <v>2.66108202443281E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -5371,10 +5424,10 @@
         <v>6417</v>
       </c>
       <c r="D310">
-        <v>0.02239790575916231</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
+        <v>2.2397905759162309E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>20</v>
       </c>
@@ -5385,10 +5438,10 @@
         <v>5989</v>
       </c>
       <c r="D311">
-        <v>0.02090401396160559</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
+        <v>2.0904013961605589E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>20</v>
       </c>
@@ -5399,10 +5452,10 @@
         <v>5716</v>
       </c>
       <c r="D312">
-        <v>0.01995113438045375</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
+        <v>1.9951134380453751E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>20</v>
       </c>
@@ -5413,10 +5466,10 @@
         <v>5238</v>
       </c>
       <c r="D313">
-        <v>0.01828272251308901</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
+        <v>1.828272251308901E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>20</v>
       </c>
@@ -5427,10 +5480,10 @@
         <v>4917</v>
       </c>
       <c r="D314">
-        <v>0.01716230366492147</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
+        <v>1.7162303664921469E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>20</v>
       </c>
@@ -5441,10 +5494,10 @@
         <v>4663</v>
       </c>
       <c r="D315">
-        <v>0.01627574171029668</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
+        <v>1.6275741710296679E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -5455,10 +5508,10 @@
         <v>4103</v>
       </c>
       <c r="D316">
-        <v>0.01432111692844677</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
+        <v>1.4321116928446769E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>20</v>
       </c>
@@ -5469,10 +5522,10 @@
         <v>3655</v>
       </c>
       <c r="D317">
-        <v>0.01275741710296684</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
+        <v>1.275741710296684E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>20</v>
       </c>
@@ -5483,10 +5536,10 @@
         <v>3214</v>
       </c>
       <c r="D318">
-        <v>0.01121815008726004</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
+        <v>1.1218150087260041E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>20</v>
       </c>
@@ -5497,10 +5550,10 @@
         <v>2868</v>
       </c>
       <c r="D319">
-        <v>0.01001047120418848</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
+        <v>1.001047120418848E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>20</v>
       </c>
@@ -5511,10 +5564,10 @@
         <v>2842</v>
       </c>
       <c r="D320">
-        <v>0.009919720767888307</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
+        <v>9.9197207678883067E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>21</v>
       </c>
@@ -5525,10 +5578,10 @@
         <v>9632</v>
       </c>
       <c r="D321">
-        <v>0.0336195462478185</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4">
+        <v>3.3619546247818502E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>21</v>
       </c>
@@ -5536,10 +5589,10 @@
         <v>8346</v>
       </c>
       <c r="D322">
-        <v>0.02913089005235602</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4">
+        <v>2.9130890052356018E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>21</v>
       </c>
@@ -5550,10 +5603,10 @@
         <v>7230</v>
       </c>
       <c r="D323">
-        <v>0.02523560209424084</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4">
+        <v>2.523560209424084E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -5564,10 +5617,10 @@
         <v>6880</v>
       </c>
       <c r="D324">
-        <v>0.02401396160558464</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4">
+        <v>2.4013961605584638E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>21</v>
       </c>
@@ -5578,10 +5631,10 @@
         <v>5732</v>
       </c>
       <c r="D325">
-        <v>0.02000698080279232</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4">
+        <v>2.0006980802792319E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>21</v>
       </c>
@@ -5592,10 +5645,10 @@
         <v>4825</v>
       </c>
       <c r="D326">
-        <v>0.01684118673647469</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4">
+        <v>1.6841186736474691E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>21</v>
       </c>
@@ -5606,10 +5659,10 @@
         <v>4659</v>
       </c>
       <c r="D327">
-        <v>0.01626178010471204</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4">
+        <v>1.6261780104712041E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>21</v>
       </c>
@@ -5620,10 +5673,10 @@
         <v>4428</v>
       </c>
       <c r="D328">
-        <v>0.01545549738219895</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
+        <v>1.545549738219895E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>21</v>
       </c>
@@ -5634,10 +5687,10 @@
         <v>4370</v>
       </c>
       <c r="D329">
-        <v>0.01525305410122164</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4">
+        <v>1.5253054101221641E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>21</v>
       </c>
@@ -5648,10 +5701,10 @@
         <v>4257</v>
       </c>
       <c r="D330">
-        <v>0.0148586387434555</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4">
+        <v>1.4858638743455501E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>21</v>
       </c>
@@ -5662,10 +5715,10 @@
         <v>3769</v>
       </c>
       <c r="D331">
-        <v>0.01315532286212914</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4">
+        <v>1.3155322862129139E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>21</v>
       </c>
@@ -5676,10 +5729,10 @@
         <v>3761</v>
       </c>
       <c r="D332">
-        <v>0.01312739965095986</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4">
+        <v>1.312739965095986E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>21</v>
       </c>
@@ -5690,10 +5743,10 @@
         <v>3603</v>
       </c>
       <c r="D333">
-        <v>0.01257591623036649</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4">
+        <v>1.2575916230366489E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>21</v>
       </c>
@@ -5704,10 +5757,10 @@
         <v>3437</v>
       </c>
       <c r="D334">
-        <v>0.01199650959860384</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4">
+        <v>1.1996509598603841E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>21</v>
       </c>
@@ -5718,10 +5771,10 @@
         <v>3214</v>
       </c>
       <c r="D335">
-        <v>0.01121815008726004</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4">
+        <v>1.1218150087260041E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>21</v>
       </c>
@@ -5732,10 +5785,10 @@
         <v>3191</v>
       </c>
       <c r="D336">
-        <v>0.01113787085514834</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
+        <v>1.113787085514834E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>21</v>
       </c>
@@ -5746,10 +5799,10 @@
         <v>3102</v>
       </c>
       <c r="D337">
-        <v>0.01082722513089005</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
+        <v>1.082722513089005E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>21</v>
       </c>
@@ -5760,10 +5813,10 @@
         <v>3051</v>
       </c>
       <c r="D338">
-        <v>0.01064921465968586</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4">
+        <v>1.064921465968586E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>21</v>
       </c>
@@ -5774,10 +5827,10 @@
         <v>3014</v>
       </c>
       <c r="D339">
-        <v>0.01052006980802792</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4">
+        <v>1.0520069808027921E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>21</v>
       </c>
@@ -5788,10 +5841,10 @@
         <v>2891</v>
       </c>
       <c r="D340">
-        <v>0.01009075043630017</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4">
+        <v>1.009075043630017E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>21</v>
       </c>
@@ -5802,10 +5855,10 @@
         <v>2887</v>
       </c>
       <c r="D341">
-        <v>0.01007678883071553</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4">
+        <v>1.0076788830715531E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>21</v>
       </c>
@@ -5816,10 +5869,10 @@
         <v>2868</v>
       </c>
       <c r="D342">
-        <v>0.01001047120418848</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
+        <v>1.001047120418848E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>21</v>
       </c>
@@ -5830,10 +5883,10 @@
         <v>2567</v>
       </c>
       <c r="D343">
-        <v>0.008959860383944154</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
+        <v>8.9598603839441543E-3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>21</v>
       </c>
@@ -5844,10 +5897,10 @@
         <v>2544</v>
       </c>
       <c r="D344">
-        <v>0.008879581151832461</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
+        <v>8.8795811518324608E-3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>21</v>
       </c>
@@ -5858,7 +5911,7 @@
         <v>2469</v>
       </c>
       <c r="D345">
-        <v>0.008617801047120418</v>
+        <v>8.6178010471204183E-3</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/value_summary.xlsx
+++ b/summaries/value_summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Cancel</t>
+          <t>Cancellation Confirmation</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Cancellation Confirmation</t>
+          <t>Cancel</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1539790653000</v>
+        <v>1539190198000</v>
       </c>
       <c r="C272" t="n">
         <v>22</v>
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1539097302000</v>
+        <v>1539282965000</v>
       </c>
       <c r="C273" t="n">
         <v>22</v>
@@ -5129,7 +5129,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1539110890000</v>
+        <v>1539097302000</v>
       </c>
       <c r="C275" t="n">
         <v>22</v>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1539282965000</v>
+        <v>1539109331000</v>
       </c>
       <c r="C276" t="n">
         <v>22</v>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1539109331000</v>
+        <v>1539110890000</v>
       </c>
       <c r="C277" t="n">
         <v>22</v>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1539190198000</v>
+        <v>1539790653000</v>
       </c>
       <c r="C278" t="n">
         <v>22</v>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1539965607000</v>
+        <v>1539978625000</v>
       </c>
       <c r="C280" t="n">
         <v>21</v>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1539978625000</v>
+        <v>1541471269000</v>
       </c>
       <c r="C281" t="n">
         <v>21</v>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1539896890000</v>
+        <v>1539190784000</v>
       </c>
       <c r="C282" t="n">
         <v>21</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1538760328000</v>
+        <v>1539965607000</v>
       </c>
       <c r="C283" t="n">
         <v>21</v>
@@ -5273,7 +5273,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1540316656000</v>
+        <v>1539896890000</v>
       </c>
       <c r="C284" t="n">
         <v>21</v>
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1541471269000</v>
+        <v>1538418995000</v>
       </c>
       <c r="C286" t="n">
         <v>21</v>
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1539190784000</v>
+        <v>1538760328000</v>
       </c>
       <c r="C287" t="n">
         <v>21</v>
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1538418995000</v>
+        <v>1539707769000</v>
       </c>
       <c r="C288" t="n">
         <v>21</v>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1540309900000</v>
+        <v>1540316656000</v>
       </c>
       <c r="C289" t="n">
         <v>21</v>
@@ -5369,7 +5369,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1539707769000</v>
+        <v>1540309900000</v>
       </c>
       <c r="C290" t="n">
         <v>21</v>
@@ -5385,7 +5385,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1539186979000</v>
+        <v>1540559866000</v>
       </c>
       <c r="C291" t="n">
         <v>20</v>
@@ -5401,7 +5401,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1538674118000</v>
+        <v>1540397026000</v>
       </c>
       <c r="C292" t="n">
         <v>20</v>
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1538757420000</v>
+        <v>1542999763000</v>
       </c>
       <c r="C293" t="n">
         <v>20</v>
@@ -5433,7 +5433,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1540487110000</v>
+        <v>1540830843000</v>
       </c>
       <c r="C294" t="n">
         <v>20</v>
@@ -6357,6 +6357,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/summaries/value_summary.xlsx
+++ b/summaries/value_summary.xlsx
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Cancellation Confirmation</t>
+          <t>Cancel</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Cancel</t>
+          <t>Cancellation Confirmation</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1539190198000</v>
+        <v>1539282965000</v>
       </c>
       <c r="C272" t="n">
         <v>22</v>
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1539282965000</v>
+        <v>1539097302000</v>
       </c>
       <c r="C273" t="n">
         <v>22</v>
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1538762566000</v>
+        <v>1539110890000</v>
       </c>
       <c r="C274" t="n">
         <v>22</v>
@@ -5129,7 +5129,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1539097302000</v>
+        <v>1539109331000</v>
       </c>
       <c r="C275" t="n">
         <v>22</v>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1539109331000</v>
+        <v>1538762566000</v>
       </c>
       <c r="C276" t="n">
         <v>22</v>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1539110890000</v>
+        <v>1539190198000</v>
       </c>
       <c r="C277" t="n">
         <v>22</v>
@@ -5193,7 +5193,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1538770941000</v>
+        <v>1539978625000</v>
       </c>
       <c r="C279" t="n">
         <v>21</v>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1539978625000</v>
+        <v>1539896890000</v>
       </c>
       <c r="C280" t="n">
         <v>21</v>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1541471269000</v>
+        <v>1540316656000</v>
       </c>
       <c r="C281" t="n">
         <v>21</v>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1539190784000</v>
+        <v>1538418995000</v>
       </c>
       <c r="C282" t="n">
         <v>21</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1539965607000</v>
+        <v>1539023043000</v>
       </c>
       <c r="C283" t="n">
         <v>21</v>
@@ -5273,7 +5273,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1539896890000</v>
+        <v>1539965607000</v>
       </c>
       <c r="C284" t="n">
         <v>21</v>
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1539023043000</v>
+        <v>1539707769000</v>
       </c>
       <c r="C285" t="n">
         <v>21</v>
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1538418995000</v>
+        <v>1541471269000</v>
       </c>
       <c r="C286" t="n">
         <v>21</v>
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1538760328000</v>
+        <v>1540309900000</v>
       </c>
       <c r="C287" t="n">
         <v>21</v>
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1539707769000</v>
+        <v>1538760328000</v>
       </c>
       <c r="C288" t="n">
         <v>21</v>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1540316656000</v>
+        <v>1539190784000</v>
       </c>
       <c r="C289" t="n">
         <v>21</v>
@@ -5369,7 +5369,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1540309900000</v>
+        <v>1538770941000</v>
       </c>
       <c r="C290" t="n">
         <v>21</v>
@@ -5385,7 +5385,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1540559866000</v>
+        <v>1540397026000</v>
       </c>
       <c r="C291" t="n">
         <v>20</v>
@@ -5401,7 +5401,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1540397026000</v>
+        <v>1541094420000</v>
       </c>
       <c r="C292" t="n">
         <v>20</v>
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1542999763000</v>
+        <v>1538759057000</v>
       </c>
       <c r="C293" t="n">
         <v>20</v>
@@ -5433,7 +5433,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1540830843000</v>
+        <v>1542999763000</v>
       </c>
       <c r="C294" t="n">
         <v>20</v>
